--- a/raw/Concepthierarchy.xlsx
+++ b/raw/Concepthierarchy.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="0"/>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>concept_id</t>
   </si>
@@ -31,17 +31,17 @@
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,15 +95,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
   <sheetData>
-    <row r="0"/>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1963,6 +1962,2182 @@
         <v>43</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="6">
+        <v>143</v>
+      </c>
+      <c r="C234" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="6">
+        <v>47</v>
+      </c>
+      <c r="B235" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="6">
+        <v>144</v>
+      </c>
+      <c r="C236" s="8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="6">
+        <v>145</v>
+      </c>
+      <c r="B237" s="7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="6">
+        <v>143</v>
+      </c>
+      <c r="C238" s="8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="6">
+        <v>144</v>
+      </c>
+      <c r="B239" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="6">
+        <v>143</v>
+      </c>
+      <c r="C240" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="6">
+        <v>106</v>
+      </c>
+      <c r="B241" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="6">
+        <v>143</v>
+      </c>
+      <c r="C242" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="6">
+        <v>49</v>
+      </c>
+      <c r="B243" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="6">
+        <v>146</v>
+      </c>
+      <c r="C244" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="6">
+        <v>112</v>
+      </c>
+      <c r="B245" s="7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="6">
+        <v>146</v>
+      </c>
+      <c r="C246" s="8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="6">
+        <v>130</v>
+      </c>
+      <c r="B247" s="7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="6">
+        <v>146</v>
+      </c>
+      <c r="C248" s="8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="6">
+        <v>132</v>
+      </c>
+      <c r="B249" s="7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="6">
+        <v>148</v>
+      </c>
+      <c r="C250" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="6">
+        <v>146</v>
+      </c>
+      <c r="B251" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="6">
+        <v>148</v>
+      </c>
+      <c r="C252" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="6">
+        <v>106</v>
+      </c>
+      <c r="B253" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="6">
+        <v>148</v>
+      </c>
+      <c r="C254" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="6">
+        <v>125</v>
+      </c>
+      <c r="B255" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="6">
+        <v>148</v>
+      </c>
+      <c r="C256" s="8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="6">
+        <v>132</v>
+      </c>
+      <c r="B257" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="6">
+        <v>148</v>
+      </c>
+      <c r="C258" s="8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="6">
+        <v>130</v>
+      </c>
+      <c r="B259" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="6">
+        <v>149</v>
+      </c>
+      <c r="C260" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="6">
+        <v>49</v>
+      </c>
+      <c r="B261" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="6">
+        <v>149</v>
+      </c>
+      <c r="C262" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="6">
+        <v>125</v>
+      </c>
+      <c r="B263" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="6">
+        <v>149</v>
+      </c>
+      <c r="C264" s="8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="6">
+        <v>130</v>
+      </c>
+      <c r="B265" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="6">
+        <v>149</v>
+      </c>
+      <c r="C266" s="8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="6">
+        <v>132</v>
+      </c>
+      <c r="B267" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="6">
+        <v>150</v>
+      </c>
+      <c r="C268" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="6">
+        <v>19</v>
+      </c>
+      <c r="B269" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="6">
+        <v>150</v>
+      </c>
+      <c r="C270" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="6">
+        <v>106</v>
+      </c>
+      <c r="B271" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="6">
+        <v>150</v>
+      </c>
+      <c r="C272" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="6">
+        <v>47</v>
+      </c>
+      <c r="B273" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="6">
+        <v>152</v>
+      </c>
+      <c r="C274" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="6">
+        <v>59</v>
+      </c>
+      <c r="B275" s="7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="6">
+        <v>152</v>
+      </c>
+      <c r="C276" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="6">
+        <v>57</v>
+      </c>
+      <c r="B277" s="7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="6">
+        <v>153</v>
+      </c>
+      <c r="C278" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="6">
+        <v>50</v>
+      </c>
+      <c r="B279" s="7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="6">
+        <v>153</v>
+      </c>
+      <c r="C280" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="6">
+        <v>24</v>
+      </c>
+      <c r="B281" s="7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="6">
+        <v>153</v>
+      </c>
+      <c r="C282" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="6">
+        <v>53</v>
+      </c>
+      <c r="B283" s="7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="6">
+        <v>155</v>
+      </c>
+      <c r="C284" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="6">
+        <v>57</v>
+      </c>
+      <c r="B285" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="6">
+        <v>155</v>
+      </c>
+      <c r="C286" s="8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="6">
+        <v>135</v>
+      </c>
+      <c r="B287" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="6">
+        <v>156</v>
+      </c>
+      <c r="C288" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="6">
+        <v>79</v>
+      </c>
+      <c r="B289" s="7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="6">
+        <v>166</v>
+      </c>
+      <c r="B290" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="6">
+        <v>1</v>
+      </c>
+      <c r="C291" s="8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="6">
+        <v>165</v>
+      </c>
+      <c r="B292" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="6">
+        <v>1</v>
+      </c>
+      <c r="C293" s="8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="6">
+        <v>171</v>
+      </c>
+      <c r="C294" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="6">
+        <v>79</v>
+      </c>
+      <c r="B295" s="7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="6">
+        <v>179</v>
+      </c>
+      <c r="C296" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="6">
+        <v>2</v>
+      </c>
+      <c r="B297" s="7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="6">
+        <v>179</v>
+      </c>
+      <c r="C298" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="6">
+        <v>178</v>
+      </c>
+      <c r="B299" s="7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="6">
+        <v>179</v>
+      </c>
+      <c r="C300" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="6">
+        <v>64</v>
+      </c>
+      <c r="B301" s="7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="6">
+        <v>180</v>
+      </c>
+      <c r="C302" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="6">
+        <v>179</v>
+      </c>
+      <c r="B303" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="6">
+        <v>180</v>
+      </c>
+      <c r="C304" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="6">
+        <v>3</v>
+      </c>
+      <c r="B305" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="6">
+        <v>181</v>
+      </c>
+      <c r="C306" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="6">
+        <v>179</v>
+      </c>
+      <c r="B307" s="7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="6">
+        <v>181</v>
+      </c>
+      <c r="C308" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="6">
+        <v>3</v>
+      </c>
+      <c r="B309" s="7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="6">
+        <v>199</v>
+      </c>
+      <c r="C310" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="6">
+        <v>1</v>
+      </c>
+      <c r="B311" s="7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="6">
+        <v>199</v>
+      </c>
+      <c r="C312" s="8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="6">
+        <v>177</v>
+      </c>
+      <c r="B313" s="7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="6">
+        <v>201</v>
+      </c>
+      <c r="C314" s="8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="6">
+        <v>202</v>
+      </c>
+      <c r="B315" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="6">
+        <v>182</v>
+      </c>
+      <c r="C316" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="6">
+        <v>64</v>
+      </c>
+      <c r="B317" s="7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="6">
+        <v>182</v>
+      </c>
+      <c r="C318" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="6">
+        <v>65</v>
+      </c>
+      <c r="B319" s="7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="6">
+        <v>204</v>
+      </c>
+      <c r="C320" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="6">
+        <v>104</v>
+      </c>
+      <c r="B321" s="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="6">
+        <v>205</v>
+      </c>
+      <c r="C322" s="8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="6">
+        <v>145</v>
+      </c>
+      <c r="B323" s="7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="6">
+        <v>195</v>
+      </c>
+      <c r="C324" s="8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="6">
+        <v>199</v>
+      </c>
+      <c r="B325" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="6">
+        <v>73</v>
+      </c>
+      <c r="C326" s="8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="6">
+        <v>157</v>
+      </c>
+      <c r="B327" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="6">
+        <v>73</v>
+      </c>
+      <c r="C328" s="8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="6">
+        <v>173</v>
+      </c>
+      <c r="B329" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="6">
+        <v>73</v>
+      </c>
+      <c r="C330" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="6">
+        <v>211</v>
+      </c>
+      <c r="B331" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="6">
+        <v>88</v>
+      </c>
+      <c r="C332" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="6">
+        <v>34</v>
+      </c>
+      <c r="B333" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="6">
+        <v>88</v>
+      </c>
+      <c r="C334" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="6">
+        <v>47</v>
+      </c>
+      <c r="B335" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="6">
+        <v>226</v>
+      </c>
+      <c r="C336" s="8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="6">
+        <v>227</v>
+      </c>
+      <c r="B337" s="7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="6">
+        <v>227</v>
+      </c>
+      <c r="C338" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="6">
+        <v>47</v>
+      </c>
+      <c r="B339" s="7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="6">
+        <v>227</v>
+      </c>
+      <c r="C340" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="6">
+        <v>64</v>
+      </c>
+      <c r="B341" s="7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="6">
+        <v>50</v>
+      </c>
+      <c r="C342" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="6">
+        <v>66</v>
+      </c>
+      <c r="B343" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="6">
+        <v>20</v>
+      </c>
+      <c r="C344" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="6">
+        <v>68</v>
+      </c>
+      <c r="B345" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="6">
+        <v>234</v>
+      </c>
+      <c r="C346" s="8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="6">
+        <v>227</v>
+      </c>
+      <c r="B347" s="7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="6">
+        <v>235</v>
+      </c>
+      <c r="C348" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="6">
+        <v>95</v>
+      </c>
+      <c r="B349" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="6">
+        <v>235</v>
+      </c>
+      <c r="C350" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="6">
+        <v>96</v>
+      </c>
+      <c r="B351" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="6">
+        <v>144</v>
+      </c>
+      <c r="C352" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="6">
+        <v>66</v>
+      </c>
+      <c r="B353" s="7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="6">
+        <v>241</v>
+      </c>
+      <c r="C354" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="6">
+        <v>98</v>
+      </c>
+      <c r="B355" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="6">
+        <v>241</v>
+      </c>
+      <c r="C356" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="6">
+        <v>104</v>
+      </c>
+      <c r="B357" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="6">
+        <v>241</v>
+      </c>
+      <c r="C358" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="6">
+        <v>53</v>
+      </c>
+      <c r="B359" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="6">
+        <v>241</v>
+      </c>
+      <c r="C360" s="8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="6">
+        <v>143</v>
+      </c>
+      <c r="B361" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="6">
+        <v>241</v>
+      </c>
+      <c r="C362" s="8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="6">
+        <v>242</v>
+      </c>
+      <c r="B363" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="6">
+        <v>97</v>
+      </c>
+      <c r="C364" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="6">
+        <v>64</v>
+      </c>
+      <c r="B365" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="6">
+        <v>97</v>
+      </c>
+      <c r="C366" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="6">
+        <v>65</v>
+      </c>
+      <c r="B367" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="6">
+        <v>97</v>
+      </c>
+      <c r="C368" s="8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="6">
+        <v>241</v>
+      </c>
+      <c r="B369" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="6">
+        <v>97</v>
+      </c>
+      <c r="C370" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="6">
+        <v>235</v>
+      </c>
+      <c r="B371" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="6">
+        <v>97</v>
+      </c>
+      <c r="C372" s="8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="6">
+        <v>199</v>
+      </c>
+      <c r="B373" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="6">
+        <v>250</v>
+      </c>
+      <c r="C374" s="8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="6">
+        <v>251</v>
+      </c>
+      <c r="B375" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="6">
+        <v>162</v>
+      </c>
+      <c r="C376" s="8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="6">
+        <v>250</v>
+      </c>
+      <c r="B377" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="6">
+        <v>161</v>
+      </c>
+      <c r="C378" s="8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="6">
+        <v>250</v>
+      </c>
+      <c r="B379" s="7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="6">
+        <v>252</v>
+      </c>
+      <c r="C380" s="8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="6">
+        <v>209</v>
+      </c>
+      <c r="B381" s="7">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="6">
+        <v>259</v>
+      </c>
+      <c r="C382" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="6">
+        <v>79</v>
+      </c>
+      <c r="B383" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="6">
+        <v>259</v>
+      </c>
+      <c r="C384" s="8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="6">
+        <v>260</v>
+      </c>
+      <c r="B385" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="6">
+        <v>259</v>
+      </c>
+      <c r="C386" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="6">
+        <v>19</v>
+      </c>
+      <c r="B387" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="6">
+        <v>259</v>
+      </c>
+      <c r="C388" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="6">
+        <v>82</v>
+      </c>
+      <c r="B389" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="6">
+        <v>259</v>
+      </c>
+      <c r="C390" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="6">
+        <v>25</v>
+      </c>
+      <c r="B391" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="6">
+        <v>259</v>
+      </c>
+      <c r="C392" s="8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="6">
+        <v>261</v>
+      </c>
+      <c r="B393" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="6">
+        <v>262</v>
+      </c>
+      <c r="C394" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="6">
+        <v>263</v>
+      </c>
+      <c r="B395" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="6">
+        <v>262</v>
+      </c>
+      <c r="C396" s="8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="6">
+        <v>264</v>
+      </c>
+      <c r="B397" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="6">
+        <v>264</v>
+      </c>
+      <c r="C398" s="8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="6">
+        <v>261</v>
+      </c>
+      <c r="B399" s="7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="6">
+        <v>264</v>
+      </c>
+      <c r="C400" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="6">
+        <v>25</v>
+      </c>
+      <c r="B401" s="7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="6">
+        <v>264</v>
+      </c>
+      <c r="C402" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="6">
+        <v>78</v>
+      </c>
+      <c r="B403" s="7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="6">
+        <v>265</v>
+      </c>
+      <c r="C404" s="8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="6">
+        <v>266</v>
+      </c>
+      <c r="B405" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="6">
+        <v>265</v>
+      </c>
+      <c r="C406" s="8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="6">
+        <v>267</v>
+      </c>
+      <c r="B407" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="6">
+        <v>265</v>
+      </c>
+      <c r="C408" s="8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="6">
+        <v>268</v>
+      </c>
+      <c r="B409" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="6">
+        <v>265</v>
+      </c>
+      <c r="C410" s="8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="6">
+        <v>269</v>
+      </c>
+      <c r="B411" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="6">
+        <v>270</v>
+      </c>
+      <c r="C412" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="6">
+        <v>25</v>
+      </c>
+      <c r="B413" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="6">
+        <v>270</v>
+      </c>
+      <c r="C414" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="6">
+        <v>19</v>
+      </c>
+      <c r="B415" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="6">
+        <v>270</v>
+      </c>
+      <c r="C416" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="6">
+        <v>263</v>
+      </c>
+      <c r="B417" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="6">
+        <v>263</v>
+      </c>
+      <c r="C418" s="8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="6">
+        <v>271</v>
+      </c>
+      <c r="B419" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="6">
+        <v>263</v>
+      </c>
+      <c r="C420" s="8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="6">
+        <v>261</v>
+      </c>
+      <c r="B421" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="6">
+        <v>263</v>
+      </c>
+      <c r="C422" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="6">
+        <v>82</v>
+      </c>
+      <c r="B423" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="6">
+        <v>263</v>
+      </c>
+      <c r="C424" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="6">
+        <v>25</v>
+      </c>
+      <c r="B425" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="6">
+        <v>263</v>
+      </c>
+      <c r="C426" s="8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="6">
+        <v>272</v>
+      </c>
+      <c r="B427" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="6">
+        <v>275</v>
+      </c>
+      <c r="C428" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="6">
+        <v>179</v>
+      </c>
+      <c r="B429" s="7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="6">
+        <v>276</v>
+      </c>
+      <c r="C430" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="6">
+        <v>179</v>
+      </c>
+      <c r="B431" s="7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="6">
+        <v>277</v>
+      </c>
+      <c r="B432" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="6">
+        <v>241</v>
+      </c>
+      <c r="C433" s="8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="6">
+        <v>278</v>
+      </c>
+      <c r="C434" s="8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="6">
+        <v>277</v>
+      </c>
+      <c r="B435" s="7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="6">
+        <v>278</v>
+      </c>
+      <c r="C436" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="6">
+        <v>79</v>
+      </c>
+      <c r="B437" s="7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="6">
+        <v>279</v>
+      </c>
+      <c r="C438" s="8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="6">
+        <v>278</v>
+      </c>
+      <c r="B439" s="7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="6">
+        <v>280</v>
+      </c>
+      <c r="C440" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="6">
+        <v>79</v>
+      </c>
+      <c r="B441" s="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="6">
+        <v>280</v>
+      </c>
+      <c r="C442" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="6">
+        <v>28</v>
+      </c>
+      <c r="B443" s="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="6">
+        <v>280</v>
+      </c>
+      <c r="C444" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="6">
+        <v>119</v>
+      </c>
+      <c r="B445" s="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="6">
+        <v>280</v>
+      </c>
+      <c r="C446" s="8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="6">
+        <v>117</v>
+      </c>
+      <c r="B447" s="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="6">
+        <v>281</v>
+      </c>
+      <c r="C448" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="6">
+        <v>57</v>
+      </c>
+      <c r="B449" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="6">
+        <v>281</v>
+      </c>
+      <c r="C450" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="6">
+        <v>90</v>
+      </c>
+      <c r="B451" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="6">
+        <v>281</v>
+      </c>
+      <c r="C452" s="8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="6">
+        <v>145</v>
+      </c>
+      <c r="B453" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="6">
+        <v>281</v>
+      </c>
+      <c r="C454" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="6">
+        <v>69</v>
+      </c>
+      <c r="B455" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="6">
+        <v>281</v>
+      </c>
+      <c r="C456" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="6">
+        <v>64</v>
+      </c>
+      <c r="B457" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="6">
+        <v>232</v>
+      </c>
+      <c r="C458" s="8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="6">
+        <v>281</v>
+      </c>
+      <c r="B459" s="7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="6">
+        <v>282</v>
+      </c>
+      <c r="C460" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="6">
+        <v>66</v>
+      </c>
+      <c r="B461" s="7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="6">
+        <v>283</v>
+      </c>
+      <c r="C462" s="8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="6">
+        <v>282</v>
+      </c>
+      <c r="B463" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="6">
+        <v>282</v>
+      </c>
+      <c r="C464" s="8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="6">
+        <v>283</v>
+      </c>
+      <c r="B465" s="7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="6">
+        <v>284</v>
+      </c>
+      <c r="C466" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="6">
+        <v>178</v>
+      </c>
+      <c r="B467" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="6">
+        <v>284</v>
+      </c>
+      <c r="C468" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="6">
+        <v>68</v>
+      </c>
+      <c r="B469" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="6">
+        <v>284</v>
+      </c>
+      <c r="C470" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="6">
+        <v>179</v>
+      </c>
+      <c r="B471" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="6">
+        <v>284</v>
+      </c>
+      <c r="C472" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="6">
+        <v>65</v>
+      </c>
+      <c r="B473" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="6">
+        <v>284</v>
+      </c>
+      <c r="C474" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="6">
+        <v>64</v>
+      </c>
+      <c r="B475" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="6">
+        <v>285</v>
+      </c>
+      <c r="C476" s="8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="6">
+        <v>286</v>
+      </c>
+      <c r="B477" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="6">
+        <v>286</v>
+      </c>
+      <c r="C478" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="6">
+        <v>65</v>
+      </c>
+      <c r="B479" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="6">
+        <v>286</v>
+      </c>
+      <c r="C480" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="6">
+        <v>22</v>
+      </c>
+      <c r="B481" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="6">
+        <v>286</v>
+      </c>
+      <c r="C482" s="8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="6">
+        <v>287</v>
+      </c>
+      <c r="B483" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="6">
+        <v>286</v>
+      </c>
+      <c r="C484" s="8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="6">
+        <v>288</v>
+      </c>
+      <c r="B485" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="6">
+        <v>289</v>
+      </c>
+      <c r="C486" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="6">
+        <v>290</v>
+      </c>
+      <c r="B487" s="7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="6">
+        <v>116</v>
+      </c>
+      <c r="C488" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="6">
+        <v>290</v>
+      </c>
+      <c r="B489" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="6">
+        <v>115</v>
+      </c>
+      <c r="C490" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="6">
+        <v>290</v>
+      </c>
+      <c r="B491" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="6">
+        <v>111</v>
+      </c>
+      <c r="C492" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="6">
+        <v>290</v>
+      </c>
+      <c r="B493" s="7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="6">
+        <v>47</v>
+      </c>
+      <c r="C494" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="6">
+        <v>290</v>
+      </c>
+      <c r="B495" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="6">
+        <v>295</v>
+      </c>
+      <c r="C496" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="6">
+        <v>290</v>
+      </c>
+      <c r="B497" s="7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="6">
+        <v>297</v>
+      </c>
+      <c r="C498" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="6">
+        <v>178</v>
+      </c>
+      <c r="B499" s="7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="6">
+        <v>303</v>
+      </c>
+      <c r="C500" s="8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="6">
+        <v>302</v>
+      </c>
+      <c r="B501" s="7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="6">
+        <v>311</v>
+      </c>
+      <c r="C502" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="6">
+        <v>62</v>
+      </c>
+      <c r="B503" s="7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="6">
+        <v>311</v>
+      </c>
+      <c r="C504" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="6">
+        <v>53</v>
+      </c>
+      <c r="B505" s="7">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/raw/Concepthierarchy.xlsx
+++ b/raw/Concepthierarchy.xlsx
@@ -11,13 +11,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>concept_id</t>
+    <t>x_concepthierarchy::concept_id</t>
   </si>
   <si>
-    <t>concept_child_id</t>
+    <t>x_concepthierarchy::concept_child_id</t>
   </si>
   <si>
-    <t>concept_parent_id</t>
+    <t>x_concepthierarchy::concept_parent_id</t>
   </si>
 </sst>
 </file>
@@ -108,18 +108,18 @@
     </row>
     <row r="2">
       <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
         <v>17</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>17</v>
+      <c r="C3" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -127,268 +127,268 @@
         <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
         <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="8">
-        <v>4</v>
+      <c r="B6" s="7">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="8">
-        <v>8</v>
+      <c r="B8" s="7">
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="8">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="7">
-        <v>3</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B13" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15" s="7">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B17" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>46</v>
-      </c>
-      <c r="C18" s="8">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="B18" s="7">
+        <v>134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B19" s="7">
-        <v>46</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6">
-        <v>46</v>
-      </c>
-      <c r="C20" s="8">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B21" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6">
-        <v>46</v>
-      </c>
-      <c r="C22" s="8">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B23" s="7">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C24" s="8">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B25" s="7">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>54</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B26" s="7">
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="C27" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C28" s="8">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>58</v>
-      </c>
-      <c r="B29" s="7">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="C29" s="8">
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C30" s="8">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6">
-        <v>58</v>
-      </c>
-      <c r="B31" s="7">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="C31" s="8">
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C32" s="8">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B33" s="7">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C34" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6">
-        <v>20</v>
-      </c>
-      <c r="B35" s="7">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="C35" s="8">
+        <v>63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" s="8">
-        <v>21</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B37" s="7">
         <v>16</v>
@@ -396,938 +396,826 @@
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>16</v>
-      </c>
-      <c r="C38" s="8">
         <v>15</v>
+      </c>
+      <c r="B38" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6">
-        <v>15</v>
-      </c>
-      <c r="B39" s="7">
         <v>16</v>
+      </c>
+      <c r="C39" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C40" s="8">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6">
-        <v>24</v>
-      </c>
-      <c r="B41" s="7">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6">
-        <v>62</v>
-      </c>
-      <c r="C42" s="8">
-        <v>63</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42"/>
     <row r="43">
       <c r="A43" s="6">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B43" s="7">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6">
-        <v>12</v>
-      </c>
-      <c r="C44" s="8">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B44" s="7">
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B45" s="7">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6">
-        <v>64</v>
-      </c>
-      <c r="C46" s="8">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="B46" s="7">
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B47" s="7">
-        <v>64</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6">
-        <v>2</v>
-      </c>
-      <c r="C48" s="8">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="B48" s="7">
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B49" s="7">
-        <v>2</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C50" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6">
-        <v>65</v>
-      </c>
-      <c r="B51" s="7">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="C51" s="8">
+        <v>68</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6">
-        <v>64</v>
-      </c>
-      <c r="C52" s="8">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="B52" s="7">
+        <v>354</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B53" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C54" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B55" s="7">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>68</v>
-      </c>
-      <c r="C56" s="8">
-        <v>66</v>
+        <v>21</v>
+      </c>
+      <c r="B56" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B57" s="7">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>70</v>
-      </c>
-      <c r="C58" s="8">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="B58" s="7">
+        <v>286</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>66</v>
-      </c>
-      <c r="B59" s="7">
-        <v>70</v>
+        <v>22</v>
+      </c>
+      <c r="C59" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>70</v>
-      </c>
-      <c r="B60" s="7">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="6">
-        <v>69</v>
-      </c>
-      <c r="C61" s="8">
-        <v>70</v>
-      </c>
-    </row>
+        <v>22</v>
+      </c>
+      <c r="C60" s="8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61"/>
     <row r="62">
       <c r="A62" s="6">
-        <v>71</v>
-      </c>
-      <c r="C62" s="8">
-        <v>69</v>
+        <v>24</v>
+      </c>
+      <c r="B62" s="7">
+        <v>62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B63" s="7">
-        <v>71</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>72</v>
-      </c>
-      <c r="C64" s="8">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="B64" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B65" s="7">
-        <v>72</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>74</v>
-      </c>
-      <c r="C66" s="8">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="B66" s="7">
+        <v>259</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B67" s="7">
-        <v>74</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>75</v>
-      </c>
-      <c r="C68" s="8">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="B68" s="7">
+        <v>270</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B69" s="7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="6">
-        <v>75</v>
-      </c>
-      <c r="C70" s="8">
-        <v>10</v>
-      </c>
-    </row>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70"/>
     <row r="71">
       <c r="A71" s="6">
-        <v>10</v>
-      </c>
-      <c r="B71" s="7">
-        <v>75</v>
+        <v>27</v>
+      </c>
+      <c r="C71" s="8">
+        <v>66</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C72" s="8">
-        <v>79</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6">
-        <v>79</v>
-      </c>
-      <c r="B73" s="7">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="C73" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C74" s="8">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B75" s="7">
-        <v>54</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>54</v>
-      </c>
-      <c r="C76" s="8">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="B76" s="7">
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>57</v>
-      </c>
-      <c r="B77" s="7">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="C77" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C78" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="6">
-        <v>64</v>
-      </c>
-      <c r="B79" s="7">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="6">
-        <v>30</v>
-      </c>
-      <c r="C80" s="8">
-        <v>50</v>
-      </c>
-    </row>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79"/>
+    <row r="80"/>
     <row r="81">
       <c r="A81" s="6">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B81" s="7">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C82" s="8">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>82</v>
-      </c>
-      <c r="B83" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="6">
-        <v>47</v>
-      </c>
-      <c r="C84" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="6">
-        <v>1</v>
-      </c>
-      <c r="B85" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="6">
         <v>35</v>
       </c>
-      <c r="C86" s="8">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="6">
-        <v>98</v>
-      </c>
-      <c r="B87" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="6">
-        <v>35</v>
-      </c>
-      <c r="C88" s="8">
+      <c r="C83" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="6">
-        <v>68</v>
-      </c>
-      <c r="B89" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="6">
-        <v>48</v>
-      </c>
-      <c r="C90" s="8">
-        <v>79</v>
-      </c>
-    </row>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
     <row r="91">
       <c r="A91" s="6">
-        <v>79</v>
-      </c>
-      <c r="B91" s="7">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="C91" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C92" s="8">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="6">
-        <v>58</v>
-      </c>
-      <c r="B93" s="7">
-        <v>48</v>
-      </c>
-    </row>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93"/>
     <row r="94">
       <c r="A94" s="6">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C94" s="8">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>69</v>
-      </c>
-      <c r="B95" s="7">
-        <v>99</v>
+        <v>46</v>
+      </c>
+      <c r="C95" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C96" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>47</v>
-      </c>
-      <c r="B97" s="7">
-        <v>99</v>
+        <v>46</v>
+      </c>
+      <c r="C97" s="8">
+        <v>48</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>99</v>
-      </c>
-      <c r="C98" s="8">
-        <v>100</v>
+        <v>47</v>
+      </c>
+      <c r="B98" s="7">
+        <v>46</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>100</v>
-      </c>
-      <c r="B99" s="7">
-        <v>99</v>
+        <v>47</v>
+      </c>
+      <c r="C99" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6">
+        <v>47</v>
+      </c>
+      <c r="B100" s="7">
         <v>99</v>
-      </c>
-      <c r="C100" s="8">
-        <v>59</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>59</v>
-      </c>
-      <c r="B101" s="7">
-        <v>99</v>
+        <v>47</v>
+      </c>
+      <c r="C101" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C102" s="8">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B103" s="7">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>101</v>
-      </c>
-      <c r="C104" s="8">
-        <v>69</v>
+        <v>47</v>
+      </c>
+      <c r="B104" s="7">
+        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B105" s="7">
-        <v>101</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>101</v>
-      </c>
-      <c r="C106" s="8">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="B106" s="7">
+        <v>88</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B107" s="7">
-        <v>101</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C108" s="8">
-        <v>101</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B109" s="7">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>11</v>
-      </c>
-      <c r="C110" s="8">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="B110" s="7">
+        <v>312</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B111" s="7">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C112" s="8">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>15</v>
-      </c>
-      <c r="B113" s="7">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="C113" s="8">
+        <v>58</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>11</v>
-      </c>
-      <c r="C114" s="8">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="B114" s="7">
+        <v>110</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B115" s="7">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>11</v>
-      </c>
-      <c r="C116" s="8">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="B116" s="7">
+        <v>131</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B117" s="7">
-        <v>11</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>47</v>
-      </c>
-      <c r="C118" s="8">
-        <v>19</v>
+        <v>49</v>
+      </c>
+      <c r="B118" s="7">
+        <v>46</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6">
-        <v>19</v>
-      </c>
-      <c r="B119" s="7">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C119" s="8">
+        <v>58</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>47</v>
-      </c>
-      <c r="C120" s="8">
-        <v>102</v>
+        <v>49</v>
+      </c>
+      <c r="B120" s="7">
+        <v>110</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="B121" s="7">
-        <v>47</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>70</v>
-      </c>
-      <c r="C122" s="8">
-        <v>105</v>
+        <v>49</v>
+      </c>
+      <c r="B122" s="7">
+        <v>136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B123" s="7">
-        <v>70</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>69</v>
-      </c>
-      <c r="C124" s="8">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="B124" s="7">
+        <v>149</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B125" s="7">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>110</v>
-      </c>
-      <c r="C126" s="8">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B126" s="7">
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B127" s="7">
-        <v>110</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C128" s="8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="6">
-        <v>59</v>
-      </c>
-      <c r="B129" s="7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="6">
-        <v>110</v>
-      </c>
-      <c r="C130" s="8">
-        <v>112</v>
-      </c>
-    </row>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129"/>
+    <row r="130"/>
     <row r="131">
       <c r="A131" s="6">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="B131" s="7">
-        <v>110</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6">
-        <v>110</v>
-      </c>
-      <c r="C132" s="8">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="B132" s="7">
+        <v>241</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B133" s="7">
-        <v>110</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="C134" s="8">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>49</v>
-      </c>
-      <c r="B135" s="7">
-        <v>110</v>
+        <v>54</v>
+      </c>
+      <c r="C135" s="8">
+        <v>79</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="C136" s="8">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6">
-        <v>48</v>
-      </c>
-      <c r="B137" s="7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="6">
-        <v>113</v>
-      </c>
-      <c r="C138" s="8">
-        <v>114</v>
-      </c>
-    </row>
+        <v>55</v>
+      </c>
+      <c r="C137" s="8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138"/>
     <row r="139">
       <c r="A139" s="6">
-        <v>114</v>
-      </c>
-      <c r="B139" s="7">
-        <v>113</v>
+        <v>57</v>
+      </c>
+      <c r="C139" s="8">
+        <v>58</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C140" s="8">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>99</v>
-      </c>
-      <c r="B141" s="7">
-        <v>113</v>
+        <v>57</v>
+      </c>
+      <c r="C141" s="8">
+        <v>79</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>113</v>
-      </c>
-      <c r="C142" s="8">
-        <v>115</v>
+        <v>57</v>
+      </c>
+      <c r="B142" s="7">
+        <v>54</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="B143" s="7">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>113</v>
-      </c>
-      <c r="C144" s="8">
-        <v>116</v>
+        <v>57</v>
+      </c>
+      <c r="B144" s="7">
+        <v>155</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B145" s="7">
-        <v>113</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>27</v>
-      </c>
-      <c r="C146" s="8">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="B146" s="7">
+        <v>49</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B147" s="7">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>27</v>
-      </c>
-      <c r="C148" s="8">
-        <v>117</v>
+        <v>58</v>
+      </c>
+      <c r="B148" s="7">
+        <v>48</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B149" s="7">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>27</v>
-      </c>
-      <c r="C150" s="8">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="B150" s="7">
+        <v>123</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B151" s="7">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>118</v>
-      </c>
-      <c r="C152" s="8">
-        <v>119</v>
+        <v>58</v>
+      </c>
+      <c r="B152" s="7">
+        <v>137</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="B153" s="7">
-        <v>118</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>118</v>
-      </c>
-      <c r="C154" s="8">
         <v>59</v>
+      </c>
+      <c r="B154" s="7">
+        <v>99</v>
       </c>
     </row>
     <row r="155">
@@ -1335,2809 +1223,3603 @@
         <v>59</v>
       </c>
       <c r="B155" s="7">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6">
+        <v>59</v>
+      </c>
+      <c r="B156" s="7">
         <v>118</v>
-      </c>
-      <c r="C156" s="8">
-        <v>90</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B157" s="7">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6">
-        <v>120</v>
-      </c>
-      <c r="C158" s="8">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B158" s="7">
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B159" s="7">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>121</v>
-      </c>
-      <c r="C160" s="8">
-        <v>120</v>
+        <v>59</v>
+      </c>
+      <c r="B160" s="7">
+        <v>223</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B161" s="7">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="C162" s="8">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>120</v>
-      </c>
-      <c r="B163" s="7">
-        <v>122</v>
+        <v>62</v>
+      </c>
+      <c r="C163" s="8">
+        <v>24</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C164" s="8">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B165" s="7">
-        <v>123</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>123</v>
-      </c>
-      <c r="C166" s="8">
-        <v>99</v>
+        <v>62</v>
+      </c>
+      <c r="B166" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B167" s="7">
-        <v>123</v>
+        <v>311</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>123</v>
-      </c>
-      <c r="C168" s="8">
-        <v>106</v>
+        <v>63</v>
+      </c>
+      <c r="B168" s="7">
+        <v>62</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B169" s="7">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="C170" s="8">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>49</v>
-      </c>
-      <c r="B171" s="7">
-        <v>123</v>
+        <v>64</v>
+      </c>
+      <c r="C171" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C172" s="8">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B173" s="7">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6">
-        <v>123</v>
-      </c>
-      <c r="C174" s="8">
-        <v>125</v>
+        <v>64</v>
+      </c>
+      <c r="B174" s="7">
+        <v>179</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B175" s="7">
-        <v>123</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6">
-        <v>106</v>
-      </c>
-      <c r="C176" s="8">
-        <v>128</v>
+        <v>64</v>
+      </c>
+      <c r="B176" s="7">
+        <v>227</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B177" s="7">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6">
-        <v>129</v>
-      </c>
-      <c r="C178" s="8">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B178" s="7">
+        <v>281</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B179" s="7">
-        <v>129</v>
+        <v>284</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6">
-        <v>130</v>
-      </c>
-      <c r="C180" s="8">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="B180" s="7">
+        <v>312</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B181" s="7">
-        <v>130</v>
+        <v>352</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6">
-        <v>131</v>
-      </c>
-      <c r="C182" s="8">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="B182" s="7">
+        <v>67</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B183" s="7">
-        <v>131</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6">
-        <v>132</v>
-      </c>
-      <c r="C184" s="8">
-        <v>131</v>
+        <v>65</v>
+      </c>
+      <c r="B184" s="7">
+        <v>27</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="6">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B185" s="7">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6">
-        <v>134</v>
-      </c>
-      <c r="C186" s="8">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="B186" s="7">
+        <v>182</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B187" s="7">
-        <v>134</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6">
-        <v>134</v>
-      </c>
-      <c r="C188" s="8">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="B188" s="7">
+        <v>284</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B189" s="7">
-        <v>134</v>
+        <v>286</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6">
-        <v>134</v>
-      </c>
-      <c r="C190" s="8">
-        <v>135</v>
+        <v>65</v>
+      </c>
+      <c r="B190" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="B191" s="7">
-        <v>134</v>
+        <v>352</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>134</v>
-      </c>
-      <c r="C192" s="8">
-        <v>136</v>
+        <v>66</v>
+      </c>
+      <c r="B192" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="B193" s="7">
-        <v>134</v>
+        <v>68</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>133</v>
-      </c>
-      <c r="C194" s="8">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="B194" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B195" s="7">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6">
-        <v>133</v>
-      </c>
-      <c r="C196" s="8">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="B196" s="7">
+        <v>141</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B197" s="7">
-        <v>133</v>
+        <v>50</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>133</v>
-      </c>
-      <c r="C198" s="8">
-        <v>135</v>
+        <v>66</v>
+      </c>
+      <c r="B198" s="7">
+        <v>144</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="B199" s="7">
-        <v>133</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>135</v>
-      </c>
-      <c r="C200" s="8">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="B200" s="7">
+        <v>19</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>79</v>
-      </c>
-      <c r="B201" s="7">
-        <v>135</v>
+        <v>67</v>
+      </c>
+      <c r="C201" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>135</v>
-      </c>
-      <c r="C202" s="8">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="B202" s="7">
+        <v>64</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>125</v>
-      </c>
-      <c r="B203" s="7">
-        <v>135</v>
+        <v>68</v>
+      </c>
+      <c r="C203" s="8">
+        <v>66</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6">
-        <v>135</v>
-      </c>
-      <c r="C204" s="8">
-        <v>131</v>
+        <v>68</v>
+      </c>
+      <c r="B204" s="7">
+        <v>35</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B205" s="7">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>135</v>
-      </c>
-      <c r="C206" s="8">
-        <v>106</v>
+        <v>68</v>
+      </c>
+      <c r="B206" s="7">
+        <v>284</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B207" s="7">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C208" s="8">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B209" s="7">
-        <v>135</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6">
-        <v>136</v>
-      </c>
-      <c r="C210" s="8">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="B210" s="7">
+        <v>99</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B211" s="7">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="C212" s="8">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B213" s="7">
-        <v>136</v>
+        <v>281</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C214" s="8">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B215" s="7">
-        <v>136</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6">
-        <v>136</v>
-      </c>
-      <c r="C216" s="8">
-        <v>138</v>
+        <v>70</v>
+      </c>
+      <c r="B216" s="7">
+        <v>98</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6">
-        <v>138</v>
-      </c>
-      <c r="B217" s="7">
-        <v>136</v>
+        <v>70</v>
+      </c>
+      <c r="C217" s="8">
+        <v>105</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6">
-        <v>136</v>
-      </c>
-      <c r="C218" s="8">
-        <v>137</v>
+        <v>70</v>
+      </c>
+      <c r="B218" s="7">
+        <v>97</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>137</v>
-      </c>
-      <c r="B219" s="7">
-        <v>136</v>
+        <v>71</v>
+      </c>
+      <c r="C219" s="8">
+        <v>69</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6">
-        <v>139</v>
-      </c>
-      <c r="C220" s="8">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="B220" s="7">
+        <v>74</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B221" s="7">
-        <v>139</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C222" s="8">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>135</v>
-      </c>
-      <c r="B223" s="7">
-        <v>139</v>
+        <v>73</v>
+      </c>
+      <c r="C223" s="8">
+        <v>157</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C224" s="8">
-        <v>136</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>136</v>
-      </c>
-      <c r="B225" s="7">
-        <v>139</v>
+        <v>73</v>
+      </c>
+      <c r="C225" s="8">
+        <v>211</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="C226" s="8">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6">
-        <v>59</v>
-      </c>
-      <c r="B227" s="7">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="6">
-        <v>141</v>
-      </c>
-      <c r="C228" s="8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="6">
-        <v>66</v>
-      </c>
-      <c r="B229" s="7">
-        <v>141</v>
-      </c>
-    </row>
+        <v>75</v>
+      </c>
+      <c r="C227" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228"/>
+    <row r="229"/>
     <row r="230">
       <c r="A230" s="6">
-        <v>43</v>
-      </c>
-      <c r="C230" s="8">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="B230" s="7">
+        <v>264</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6">
-        <v>10</v>
-      </c>
-      <c r="B231" s="7">
-        <v>43</v>
+        <v>78</v>
+      </c>
+      <c r="C231" s="8">
+        <v>329</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>43</v>
-      </c>
-      <c r="C232" s="8">
-        <v>19</v>
+        <v>79</v>
+      </c>
+      <c r="B232" s="7">
+        <v>57</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B233" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6">
-        <v>143</v>
-      </c>
-      <c r="C234" s="8">
-        <v>47</v>
+        <v>79</v>
+      </c>
+      <c r="B234" s="7">
+        <v>48</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B235" s="7">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6">
-        <v>144</v>
-      </c>
-      <c r="C236" s="8">
-        <v>145</v>
+        <v>79</v>
+      </c>
+      <c r="B236" s="7">
+        <v>135</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="6">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="B237" s="7">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="6">
-        <v>143</v>
-      </c>
-      <c r="C238" s="8">
-        <v>144</v>
+        <v>79</v>
+      </c>
+      <c r="B238" s="7">
+        <v>156</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="6">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="B239" s="7">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6">
-        <v>143</v>
-      </c>
-      <c r="C240" s="8">
-        <v>106</v>
+        <v>79</v>
+      </c>
+      <c r="B240" s="7">
+        <v>259</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B241" s="7">
-        <v>143</v>
+        <v>278</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6">
-        <v>143</v>
-      </c>
-      <c r="C242" s="8">
-        <v>49</v>
+        <v>79</v>
+      </c>
+      <c r="B242" s="7">
+        <v>280</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B243" s="7">
-        <v>143</v>
+        <v>223</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>146</v>
-      </c>
-      <c r="C244" s="8">
-        <v>112</v>
+        <v>79</v>
+      </c>
+      <c r="B244" s="7">
+        <v>137</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B245" s="7">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6">
-        <v>146</v>
-      </c>
-      <c r="C246" s="8">
-        <v>130</v>
+        <v>82</v>
+      </c>
+      <c r="B246" s="7">
+        <v>259</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="B247" s="7">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="6">
-        <v>146</v>
-      </c>
-      <c r="C248" s="8">
-        <v>132</v>
-      </c>
-    </row>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="248"/>
     <row r="249">
       <c r="A249" s="6">
-        <v>132</v>
-      </c>
-      <c r="B249" s="7">
-        <v>146</v>
+        <v>84</v>
+      </c>
+      <c r="C249" s="8">
+        <v>106</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C250" s="8">
-        <v>146</v>
+        <v>49</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6">
-        <v>146</v>
-      </c>
-      <c r="B251" s="7">
-        <v>148</v>
+        <v>84</v>
+      </c>
+      <c r="C251" s="8">
+        <v>125</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C252" s="8">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="6">
-        <v>106</v>
-      </c>
-      <c r="B253" s="7">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="6">
-        <v>148</v>
-      </c>
-      <c r="C254" s="8">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="6">
-        <v>125</v>
-      </c>
-      <c r="B255" s="7">
-        <v>148</v>
-      </c>
-    </row>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
     <row r="256">
       <c r="A256" s="6">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="C256" s="8">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6">
-        <v>132</v>
-      </c>
-      <c r="B257" s="7">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="6">
-        <v>148</v>
-      </c>
-      <c r="C258" s="8">
-        <v>130</v>
-      </c>
-    </row>
+        <v>88</v>
+      </c>
+      <c r="C257" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="258"/>
     <row r="259">
       <c r="A259" s="6">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B259" s="7">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6">
-        <v>149</v>
-      </c>
-      <c r="C260" s="8">
-        <v>49</v>
+        <v>90</v>
+      </c>
+      <c r="B260" s="7">
+        <v>281</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B261" s="7">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="6">
-        <v>149</v>
-      </c>
-      <c r="C262" s="8">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="6">
-        <v>125</v>
-      </c>
-      <c r="B263" s="7">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="6">
-        <v>149</v>
-      </c>
-      <c r="C264" s="8">
-        <v>130</v>
-      </c>
-    </row>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
     <row r="265">
       <c r="A265" s="6">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="B265" s="7">
-        <v>149</v>
+        <v>235</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6">
-        <v>149</v>
-      </c>
-      <c r="C266" s="8">
-        <v>132</v>
+        <v>96</v>
+      </c>
+      <c r="B266" s="7">
+        <v>235</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6">
-        <v>132</v>
-      </c>
-      <c r="B267" s="7">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="C267" s="8">
+        <v>64</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="C268" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>19</v>
-      </c>
-      <c r="B269" s="7">
-        <v>150</v>
+        <v>97</v>
+      </c>
+      <c r="C269" s="8">
+        <v>70</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="C270" s="8">
-        <v>106</v>
+        <v>322</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B271" s="7">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="6">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="C272" s="8">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6">
-        <v>47</v>
-      </c>
-      <c r="B273" s="7">
-        <v>150</v>
+        <v>98</v>
+      </c>
+      <c r="C273" s="8">
+        <v>101</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6">
-        <v>152</v>
-      </c>
-      <c r="C274" s="8">
-        <v>59</v>
+        <v>98</v>
+      </c>
+      <c r="B274" s="7">
+        <v>241</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6">
-        <v>59</v>
-      </c>
-      <c r="B275" s="7">
-        <v>152</v>
+        <v>99</v>
+      </c>
+      <c r="C275" s="8">
+        <v>69</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="C276" s="8">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6">
-        <v>57</v>
-      </c>
-      <c r="B277" s="7">
-        <v>152</v>
+        <v>99</v>
+      </c>
+      <c r="C277" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="C278" s="8">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B279" s="7">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>153</v>
-      </c>
-      <c r="C280" s="8">
-        <v>24</v>
+        <v>99</v>
+      </c>
+      <c r="B280" s="7">
+        <v>123</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="B281" s="7">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6">
-        <v>153</v>
-      </c>
-      <c r="C282" s="8">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="B282" s="7">
+        <v>99</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6">
-        <v>53</v>
-      </c>
-      <c r="B283" s="7">
-        <v>153</v>
+        <v>101</v>
+      </c>
+      <c r="C283" s="8">
+        <v>69</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C284" s="8">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B285" s="7">
-        <v>155</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6">
-        <v>155</v>
-      </c>
-      <c r="C286" s="8">
-        <v>135</v>
+        <v>102</v>
+      </c>
+      <c r="B286" s="7">
+        <v>47</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="6">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B287" s="7">
-        <v>155</v>
+        <v>204</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6">
-        <v>156</v>
-      </c>
-      <c r="C288" s="8">
-        <v>79</v>
+        <v>104</v>
+      </c>
+      <c r="B288" s="7">
+        <v>241</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B289" s="7">
-        <v>156</v>
+        <v>70</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="B290" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C291" s="8">
-        <v>166</v>
+        <v>128</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="B292" s="7">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6">
-        <v>1</v>
-      </c>
-      <c r="C293" s="8">
-        <v>165</v>
+        <v>106</v>
+      </c>
+      <c r="B293" s="7">
+        <v>143</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6">
-        <v>171</v>
-      </c>
-      <c r="C294" s="8">
-        <v>79</v>
+        <v>106</v>
+      </c>
+      <c r="B294" s="7">
+        <v>148</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B295" s="7">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6">
-        <v>179</v>
-      </c>
-      <c r="C296" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="6">
-        <v>2</v>
-      </c>
-      <c r="B297" s="7">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="6">
-        <v>179</v>
-      </c>
-      <c r="C298" s="8">
-        <v>178</v>
-      </c>
-    </row>
+        <v>106</v>
+      </c>
+      <c r="B296" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="297"/>
+    <row r="298"/>
     <row r="299">
       <c r="A299" s="6">
-        <v>178</v>
-      </c>
-      <c r="B299" s="7">
-        <v>179</v>
+        <v>110</v>
+      </c>
+      <c r="C299" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="C300" s="8">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6">
-        <v>64</v>
-      </c>
-      <c r="B301" s="7">
-        <v>179</v>
+        <v>110</v>
+      </c>
+      <c r="C301" s="8">
+        <v>112</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="C302" s="8">
-        <v>179</v>
+        <v>58</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>179</v>
-      </c>
-      <c r="B303" s="7">
-        <v>180</v>
+        <v>110</v>
+      </c>
+      <c r="C303" s="8">
+        <v>49</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="C304" s="8">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>3</v>
-      </c>
-      <c r="B305" s="7">
-        <v>180</v>
+        <v>111</v>
+      </c>
+      <c r="C305" s="8">
+        <v>290</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="6">
-        <v>181</v>
-      </c>
-      <c r="C306" s="8">
-        <v>179</v>
+        <v>112</v>
+      </c>
+      <c r="B306" s="7">
+        <v>110</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="6">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="B307" s="7">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="C308" s="8">
-        <v>3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6">
-        <v>3</v>
-      </c>
-      <c r="B309" s="7">
-        <v>181</v>
+        <v>113</v>
+      </c>
+      <c r="C309" s="8">
+        <v>99</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="6">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="C310" s="8">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6">
-        <v>1</v>
-      </c>
-      <c r="B311" s="7">
-        <v>199</v>
+        <v>113</v>
+      </c>
+      <c r="C311" s="8">
+        <v>116</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="6">
-        <v>199</v>
-      </c>
-      <c r="C312" s="8">
-        <v>177</v>
+        <v>113</v>
+      </c>
+      <c r="B312" s="7">
+        <v>136</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="B313" s="7">
-        <v>199</v>
+        <v>113</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6">
-        <v>201</v>
-      </c>
-      <c r="C314" s="8">
-        <v>202</v>
+        <v>115</v>
+      </c>
+      <c r="B314" s="7">
+        <v>113</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="6">
-        <v>202</v>
-      </c>
-      <c r="B315" s="7">
-        <v>201</v>
+        <v>115</v>
+      </c>
+      <c r="C315" s="8">
+        <v>290</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="6">
-        <v>182</v>
-      </c>
-      <c r="C316" s="8">
-        <v>64</v>
+        <v>115</v>
+      </c>
+      <c r="B316" s="7">
+        <v>137</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="B317" s="7">
-        <v>182</v>
+        <v>113</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="C318" s="8">
-        <v>65</v>
+        <v>290</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B319" s="7">
-        <v>182</v>
+        <v>137</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>204</v>
-      </c>
-      <c r="C320" s="8">
-        <v>104</v>
+        <v>117</v>
+      </c>
+      <c r="B320" s="7">
+        <v>27</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="6">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B321" s="7">
-        <v>204</v>
+        <v>280</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="C322" s="8">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="6">
-        <v>145</v>
-      </c>
-      <c r="B323" s="7">
-        <v>205</v>
+        <v>118</v>
+      </c>
+      <c r="C323" s="8">
+        <v>59</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="6">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="C324" s="8">
-        <v>199</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6">
-        <v>199</v>
-      </c>
-      <c r="B325" s="7">
-        <v>195</v>
+        <v>118</v>
+      </c>
+      <c r="C325" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6">
-        <v>73</v>
-      </c>
-      <c r="C326" s="8">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="B326" s="7">
+        <v>118</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="B327" s="7">
-        <v>73</v>
+        <v>280</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C328" s="8">
-        <v>173</v>
+        <v>65</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="B329" s="7">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6">
-        <v>73</v>
-      </c>
-      <c r="C330" s="8">
-        <v>211</v>
+        <v>120</v>
+      </c>
+      <c r="B330" s="7">
+        <v>122</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="6">
-        <v>211</v>
-      </c>
-      <c r="B331" s="7">
-        <v>73</v>
+        <v>121</v>
+      </c>
+      <c r="C331" s="8">
+        <v>120</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="6">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C332" s="8">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="6">
-        <v>34</v>
-      </c>
-      <c r="B333" s="7">
-        <v>88</v>
+        <v>123</v>
+      </c>
+      <c r="C333" s="8">
+        <v>58</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="6">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C334" s="8">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="6">
-        <v>47</v>
-      </c>
-      <c r="B335" s="7">
-        <v>88</v>
+        <v>123</v>
+      </c>
+      <c r="C335" s="8">
+        <v>106</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="6">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="C336" s="8">
-        <v>227</v>
+        <v>49</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="6">
-        <v>227</v>
-      </c>
-      <c r="B337" s="7">
-        <v>226</v>
+        <v>123</v>
+      </c>
+      <c r="C337" s="8">
+        <v>125</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="6">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="C338" s="8">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="6">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B339" s="7">
-        <v>227</v>
+        <v>123</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="6">
-        <v>227</v>
-      </c>
-      <c r="C340" s="8">
-        <v>64</v>
+        <v>125</v>
+      </c>
+      <c r="B340" s="7">
+        <v>135</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="6">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B341" s="7">
-        <v>227</v>
+        <v>148</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="6">
-        <v>50</v>
-      </c>
-      <c r="C342" s="8">
-        <v>66</v>
+        <v>125</v>
+      </c>
+      <c r="B342" s="7">
+        <v>149</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="6">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B343" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="6">
-        <v>20</v>
-      </c>
-      <c r="C344" s="8">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="6">
-        <v>68</v>
-      </c>
-      <c r="B345" s="7">
-        <v>20</v>
-      </c>
-    </row>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="344"/>
+    <row r="345"/>
     <row r="346">
       <c r="A346" s="6">
-        <v>234</v>
-      </c>
-      <c r="C346" s="8">
-        <v>227</v>
+        <v>128</v>
+      </c>
+      <c r="B346" s="7">
+        <v>106</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="B347" s="7">
-        <v>234</v>
+        <v>137</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="6">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="C348" s="8">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="6">
-        <v>95</v>
-      </c>
-      <c r="B349" s="7">
-        <v>235</v>
+        <v>130</v>
+      </c>
+      <c r="C349" s="8">
+        <v>48</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="6">
-        <v>235</v>
-      </c>
-      <c r="C350" s="8">
-        <v>96</v>
+        <v>130</v>
+      </c>
+      <c r="B350" s="7">
+        <v>146</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B351" s="7">
-        <v>235</v>
+        <v>148</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="6">
-        <v>144</v>
-      </c>
-      <c r="C352" s="8">
-        <v>66</v>
+        <v>130</v>
+      </c>
+      <c r="B352" s="7">
+        <v>149</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="6">
-        <v>66</v>
-      </c>
-      <c r="B353" s="7">
-        <v>144</v>
+        <v>131</v>
+      </c>
+      <c r="C353" s="8">
+        <v>48</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="6">
-        <v>241</v>
-      </c>
-      <c r="C354" s="8">
-        <v>98</v>
+        <v>131</v>
+      </c>
+      <c r="B354" s="7">
+        <v>132</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="6">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B355" s="7">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="6">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="C356" s="8">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="6">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="B357" s="7">
-        <v>241</v>
+        <v>146</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="6">
-        <v>241</v>
-      </c>
-      <c r="C358" s="8">
-        <v>53</v>
+        <v>132</v>
+      </c>
+      <c r="B358" s="7">
+        <v>148</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="6">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B359" s="7">
-        <v>241</v>
+        <v>149</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="6">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="C360" s="8">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="6">
-        <v>143</v>
-      </c>
-      <c r="B361" s="7">
-        <v>241</v>
+        <v>133</v>
+      </c>
+      <c r="C361" s="8">
+        <v>47</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="C362" s="8">
-        <v>242</v>
+        <v>135</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="B363" s="7">
-        <v>241</v>
+        <v>367</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="6">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C364" s="8">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="6">
-        <v>64</v>
-      </c>
-      <c r="B365" s="7">
-        <v>97</v>
+        <v>134</v>
+      </c>
+      <c r="C365" s="8">
+        <v>59</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="6">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C366" s="8">
-        <v>65</v>
+        <v>135</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="6">
-        <v>65</v>
-      </c>
-      <c r="B367" s="7">
-        <v>97</v>
+        <v>134</v>
+      </c>
+      <c r="C367" s="8">
+        <v>136</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="6">
-        <v>97</v>
-      </c>
-      <c r="C368" s="8">
-        <v>241</v>
+        <v>135</v>
+      </c>
+      <c r="B368" s="7">
+        <v>134</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="6">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="B369" s="7">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="6">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C370" s="8">
-        <v>235</v>
+        <v>79</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="6">
-        <v>235</v>
-      </c>
-      <c r="B371" s="7">
-        <v>97</v>
+        <v>135</v>
+      </c>
+      <c r="C371" s="8">
+        <v>125</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="6">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C372" s="8">
-        <v>199</v>
+        <v>131</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="6">
-        <v>199</v>
-      </c>
-      <c r="B373" s="7">
-        <v>97</v>
+        <v>135</v>
+      </c>
+      <c r="C373" s="8">
+        <v>106</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="6">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="C374" s="8">
-        <v>251</v>
+        <v>48</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="6">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="B375" s="7">
-        <v>250</v>
+        <v>139</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="6">
-        <v>162</v>
-      </c>
-      <c r="C376" s="8">
-        <v>250</v>
+        <v>135</v>
+      </c>
+      <c r="B376" s="7">
+        <v>155</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="6">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="B377" s="7">
-        <v>162</v>
+        <v>354</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="6">
-        <v>161</v>
-      </c>
-      <c r="C378" s="8">
-        <v>250</v>
+        <v>136</v>
+      </c>
+      <c r="B378" s="7">
+        <v>134</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="6">
-        <v>250</v>
-      </c>
-      <c r="B379" s="7">
-        <v>161</v>
+        <v>136</v>
+      </c>
+      <c r="C379" s="8">
+        <v>79</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="6">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="C380" s="8">
-        <v>209</v>
+        <v>49</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="6">
-        <v>209</v>
-      </c>
-      <c r="B381" s="7">
-        <v>252</v>
+        <v>136</v>
+      </c>
+      <c r="C381" s="8">
+        <v>113</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="6">
-        <v>259</v>
+        <v>136</v>
       </c>
       <c r="C382" s="8">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="6">
-        <v>79</v>
-      </c>
-      <c r="B383" s="7">
-        <v>259</v>
+        <v>136</v>
+      </c>
+      <c r="C383" s="8">
+        <v>137</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="6">
-        <v>259</v>
-      </c>
-      <c r="C384" s="8">
-        <v>260</v>
+        <v>136</v>
+      </c>
+      <c r="B384" s="7">
+        <v>139</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="B385" s="7">
-        <v>259</v>
+        <v>136</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="C386" s="8">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="6">
-        <v>19</v>
-      </c>
-      <c r="B387" s="7">
-        <v>259</v>
+        <v>137</v>
+      </c>
+      <c r="C387" s="8">
+        <v>128</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="C388" s="8">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="6">
-        <v>82</v>
-      </c>
-      <c r="B389" s="7">
-        <v>259</v>
+        <v>137</v>
+      </c>
+      <c r="C389" s="8">
+        <v>115</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="6">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="C390" s="8">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="6">
-        <v>25</v>
-      </c>
-      <c r="B391" s="7">
-        <v>259</v>
+        <v>137</v>
+      </c>
+      <c r="C391" s="8">
+        <v>99</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="6">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="C392" s="8">
-        <v>261</v>
+        <v>357</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="6">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="B393" s="7">
-        <v>259</v>
+        <v>136</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="C394" s="8">
-        <v>263</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="6">
-        <v>263</v>
-      </c>
-      <c r="B395" s="7">
-        <v>262</v>
+        <v>139</v>
+      </c>
+      <c r="C395" s="8">
+        <v>135</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="6">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="C396" s="8">
-        <v>264</v>
+        <v>136</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="6">
-        <v>264</v>
-      </c>
-      <c r="B397" s="7">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="6">
-        <v>264</v>
-      </c>
-      <c r="C398" s="8">
-        <v>261</v>
-      </c>
-    </row>
+        <v>139</v>
+      </c>
+      <c r="C397" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="398"/>
     <row r="399">
       <c r="A399" s="6">
-        <v>261</v>
-      </c>
-      <c r="B399" s="7">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="6">
-        <v>264</v>
-      </c>
-      <c r="C400" s="8">
-        <v>25</v>
-      </c>
-    </row>
+        <v>141</v>
+      </c>
+      <c r="C399" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="400"/>
     <row r="401">
       <c r="A401" s="6">
-        <v>25</v>
-      </c>
-      <c r="B401" s="7">
-        <v>264</v>
+        <v>143</v>
+      </c>
+      <c r="C401" s="8">
+        <v>47</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="C402" s="8">
-        <v>78</v>
+        <v>144</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="6">
-        <v>78</v>
-      </c>
-      <c r="B403" s="7">
-        <v>264</v>
+        <v>143</v>
+      </c>
+      <c r="C403" s="8">
+        <v>106</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="C404" s="8">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="6">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="B405" s="7">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="6">
-        <v>265</v>
+        <v>144</v>
       </c>
       <c r="C406" s="8">
-        <v>267</v>
+        <v>145</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="B407" s="7">
-        <v>265</v>
+        <v>143</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="6">
-        <v>265</v>
+        <v>144</v>
       </c>
       <c r="C408" s="8">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="6">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="B409" s="7">
-        <v>265</v>
+        <v>144</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>265</v>
-      </c>
-      <c r="C410" s="8">
-        <v>269</v>
+        <v>145</v>
+      </c>
+      <c r="B410" s="7">
+        <v>205</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="6">
-        <v>269</v>
+        <v>145</v>
       </c>
       <c r="B411" s="7">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="6">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="C412" s="8">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="6">
-        <v>25</v>
-      </c>
-      <c r="B413" s="7">
-        <v>270</v>
+        <v>149</v>
+      </c>
+      <c r="C413" s="8">
+        <v>125</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="6">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="C414" s="8">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="6">
-        <v>19</v>
-      </c>
-      <c r="B415" s="7">
-        <v>270</v>
+        <v>149</v>
+      </c>
+      <c r="C415" s="8">
+        <v>132</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="6">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="C416" s="8">
-        <v>263</v>
+        <v>19</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="6">
-        <v>263</v>
-      </c>
-      <c r="B417" s="7">
-        <v>270</v>
+        <v>150</v>
+      </c>
+      <c r="C417" s="8">
+        <v>106</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="6">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="C418" s="8">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="6">
-        <v>271</v>
-      </c>
-      <c r="B419" s="7">
-        <v>263</v>
-      </c>
-    </row>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="419"/>
     <row r="420">
       <c r="A420" s="6">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="C420" s="8">
-        <v>261</v>
+        <v>59</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="6">
-        <v>261</v>
-      </c>
-      <c r="B421" s="7">
-        <v>263</v>
+        <v>152</v>
+      </c>
+      <c r="C421" s="8">
+        <v>57</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="6">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="C422" s="8">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="6">
-        <v>82</v>
-      </c>
-      <c r="B423" s="7">
-        <v>263</v>
+        <v>153</v>
+      </c>
+      <c r="C423" s="8">
+        <v>24</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="6">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="C424" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="6">
-        <v>25</v>
-      </c>
-      <c r="B425" s="7">
-        <v>263</v>
-      </c>
-    </row>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="425"/>
     <row r="426">
       <c r="A426" s="6">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="C426" s="8">
-        <v>272</v>
+        <v>57</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="6">
-        <v>272</v>
-      </c>
-      <c r="B427" s="7">
-        <v>263</v>
+        <v>155</v>
+      </c>
+      <c r="C427" s="8">
+        <v>135</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="6">
-        <v>275</v>
+        <v>156</v>
       </c>
       <c r="C428" s="8">
-        <v>179</v>
+        <v>79</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="6">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B429" s="7">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="6">
-        <v>276</v>
-      </c>
-      <c r="C430" s="8">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="6">
-        <v>179</v>
-      </c>
-      <c r="B431" s="7">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="6">
-        <v>277</v>
-      </c>
-      <c r="B432" s="7">
-        <v>241</v>
-      </c>
-    </row>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
     <row r="433">
       <c r="A433" s="6">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="C433" s="8">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="6">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="C434" s="8">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="6">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="B435" s="7">
-        <v>278</v>
+        <v>325</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="6">
-        <v>278</v>
-      </c>
-      <c r="C436" s="8">
-        <v>79</v>
+        <v>164</v>
+      </c>
+      <c r="B436" s="7">
+        <v>354</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="6">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="B437" s="7">
-        <v>278</v>
+        <v>166</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="6">
-        <v>279</v>
-      </c>
-      <c r="C438" s="8">
-        <v>278</v>
+        <v>165</v>
+      </c>
+      <c r="B438" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="6">
-        <v>278</v>
-      </c>
-      <c r="B439" s="7">
-        <v>279</v>
+        <v>166</v>
+      </c>
+      <c r="C439" s="8">
+        <v>164</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="6">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="C440" s="8">
-        <v>79</v>
+        <v>356</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="6">
-        <v>79</v>
-      </c>
-      <c r="B441" s="7">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="6">
-        <v>280</v>
-      </c>
-      <c r="C442" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="6">
-        <v>28</v>
-      </c>
-      <c r="B443" s="7">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="6">
-        <v>280</v>
-      </c>
-      <c r="C444" s="8">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="6">
-        <v>119</v>
-      </c>
-      <c r="B445" s="7">
-        <v>280</v>
-      </c>
-    </row>
+        <v>166</v>
+      </c>
+      <c r="C441" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
     <row r="446">
       <c r="A446" s="6">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="C446" s="8">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="6">
-        <v>117</v>
-      </c>
-      <c r="B447" s="7">
-        <v>280</v>
-      </c>
-    </row>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="447"/>
     <row r="448">
       <c r="A448" s="6">
-        <v>281</v>
-      </c>
-      <c r="C448" s="8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="6">
-        <v>57</v>
-      </c>
-      <c r="B449" s="7">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="6">
-        <v>281</v>
-      </c>
-      <c r="C450" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="6">
-        <v>90</v>
-      </c>
-      <c r="B451" s="7">
-        <v>281</v>
-      </c>
-    </row>
+        <v>173</v>
+      </c>
+      <c r="B448" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
     <row r="452">
       <c r="A452" s="6">
-        <v>281</v>
-      </c>
-      <c r="C452" s="8">
-        <v>145</v>
+        <v>177</v>
+      </c>
+      <c r="B452" s="7">
+        <v>199</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="6">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B453" s="7">
-        <v>281</v>
+        <v>179</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="6">
-        <v>281</v>
-      </c>
-      <c r="C454" s="8">
-        <v>69</v>
+        <v>178</v>
+      </c>
+      <c r="B454" s="7">
+        <v>284</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="6">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="B455" s="7">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="6">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="C456" s="8">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="6">
-        <v>64</v>
-      </c>
-      <c r="B457" s="7">
-        <v>281</v>
+        <v>179</v>
+      </c>
+      <c r="C457" s="8">
+        <v>178</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="6">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="C458" s="8">
-        <v>281</v>
+        <v>64</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="6">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="B459" s="7">
-        <v>232</v>
+        <v>180</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="6">
-        <v>282</v>
-      </c>
-      <c r="C460" s="8">
-        <v>66</v>
+        <v>179</v>
+      </c>
+      <c r="B460" s="7">
+        <v>181</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="6">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="B461" s="7">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="6">
-        <v>283</v>
-      </c>
-      <c r="C462" s="8">
-        <v>282</v>
+        <v>179</v>
+      </c>
+      <c r="B462" s="7">
+        <v>276</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="6">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="B463" s="7">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="6">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="C464" s="8">
-        <v>283</v>
+        <v>179</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="6">
-        <v>283</v>
-      </c>
-      <c r="B465" s="7">
-        <v>282</v>
+        <v>180</v>
+      </c>
+      <c r="C465" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="6">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="C466" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="6">
-        <v>178</v>
-      </c>
-      <c r="B467" s="7">
-        <v>284</v>
+        <v>181</v>
+      </c>
+      <c r="C467" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="6">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="C468" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="6">
-        <v>68</v>
-      </c>
-      <c r="B469" s="7">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="6">
-        <v>284</v>
-      </c>
-      <c r="C470" s="8">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="6">
-        <v>179</v>
-      </c>
-      <c r="B471" s="7">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="6">
-        <v>284</v>
-      </c>
-      <c r="C472" s="8">
+        <v>182</v>
+      </c>
+      <c r="C469" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="6">
-        <v>65</v>
-      </c>
-      <c r="B473" s="7">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="6">
-        <v>284</v>
-      </c>
-      <c r="C474" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="6">
-        <v>64</v>
-      </c>
-      <c r="B475" s="7">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="6">
-        <v>285</v>
-      </c>
-      <c r="C476" s="8">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="6">
-        <v>286</v>
-      </c>
-      <c r="B477" s="7">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="6">
-        <v>286</v>
-      </c>
-      <c r="C478" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="6">
-        <v>65</v>
-      </c>
-      <c r="B479" s="7">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="6">
-        <v>286</v>
-      </c>
-      <c r="C480" s="8">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
     <row r="481">
       <c r="A481" s="6">
-        <v>22</v>
-      </c>
-      <c r="B481" s="7">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="6">
-        <v>286</v>
-      </c>
-      <c r="C482" s="8">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="6">
-        <v>287</v>
-      </c>
-      <c r="B483" s="7">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="6">
-        <v>286</v>
-      </c>
-      <c r="C484" s="8">
-        <v>288</v>
-      </c>
-    </row>
+        <v>195</v>
+      </c>
+      <c r="C481" s="8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
     <row r="485">
       <c r="A485" s="6">
-        <v>288</v>
-      </c>
-      <c r="B485" s="7">
-        <v>286</v>
+        <v>199</v>
+      </c>
+      <c r="C485" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="6">
-        <v>289</v>
+        <v>199</v>
       </c>
       <c r="C486" s="8">
-        <v>290</v>
+        <v>177</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="6">
-        <v>290</v>
+        <v>199</v>
       </c>
       <c r="B487" s="7">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="6">
-        <v>116</v>
-      </c>
-      <c r="C488" s="8">
-        <v>290</v>
-      </c>
-    </row>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="488"/>
     <row r="489">
       <c r="A489" s="6">
-        <v>290</v>
-      </c>
-      <c r="B489" s="7">
-        <v>116</v>
+        <v>201</v>
+      </c>
+      <c r="C489" s="8">
+        <v>202</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="6">
-        <v>115</v>
-      </c>
-      <c r="C490" s="8">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="6">
-        <v>290</v>
-      </c>
-      <c r="B491" s="7">
-        <v>115</v>
-      </c>
-    </row>
+        <v>202</v>
+      </c>
+      <c r="B490" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="491"/>
     <row r="492">
       <c r="A492" s="6">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="C492" s="8">
-        <v>290</v>
+        <v>104</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="6">
-        <v>290</v>
-      </c>
-      <c r="B493" s="7">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="6">
-        <v>47</v>
-      </c>
-      <c r="C494" s="8">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="6">
-        <v>290</v>
-      </c>
-      <c r="B495" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="6">
-        <v>295</v>
-      </c>
-      <c r="C496" s="8">
-        <v>290</v>
-      </c>
-    </row>
+        <v>205</v>
+      </c>
+      <c r="C493" s="8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
     <row r="497">
       <c r="A497" s="6">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="B497" s="7">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="6">
-        <v>297</v>
-      </c>
-      <c r="C498" s="8">
-        <v>178</v>
-      </c>
-    </row>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="498"/>
     <row r="499">
       <c r="A499" s="6">
+        <v>211</v>
+      </c>
+      <c r="B499" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511">
+      <c r="A511" s="6">
+        <v>223</v>
+      </c>
+      <c r="C511" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="6">
+        <v>223</v>
+      </c>
+      <c r="C512" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="6">
+        <v>223</v>
+      </c>
+      <c r="C513" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516">
+      <c r="A516" s="6">
+        <v>226</v>
+      </c>
+      <c r="C516" s="8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="6">
+        <v>227</v>
+      </c>
+      <c r="B517" s="7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="6">
+        <v>227</v>
+      </c>
+      <c r="C518" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="6">
+        <v>227</v>
+      </c>
+      <c r="C519" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="6">
+        <v>227</v>
+      </c>
+      <c r="B520" s="7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525">
+      <c r="A525" s="6">
+        <v>232</v>
+      </c>
+      <c r="C525" s="8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="6">
+        <v>234</v>
+      </c>
+      <c r="C526" s="8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="6">
+        <v>235</v>
+      </c>
+      <c r="C527" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="6">
+        <v>235</v>
+      </c>
+      <c r="C528" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533">
+      <c r="A533" s="6">
+        <v>241</v>
+      </c>
+      <c r="C533" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="6">
+        <v>241</v>
+      </c>
+      <c r="C534" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="6">
+        <v>241</v>
+      </c>
+      <c r="C535" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="6">
+        <v>241</v>
+      </c>
+      <c r="C536" s="8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="6">
+        <v>241</v>
+      </c>
+      <c r="C537" s="8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="6">
+        <v>241</v>
+      </c>
+      <c r="C538" s="8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="6">
+        <v>242</v>
+      </c>
+      <c r="B539" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546">
+      <c r="A546" s="6">
+        <v>250</v>
+      </c>
+      <c r="C546" s="8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="6">
+        <v>250</v>
+      </c>
+      <c r="B547" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="6">
+        <v>250</v>
+      </c>
+      <c r="B548" s="7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="6">
+        <v>251</v>
+      </c>
+      <c r="B549" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="6">
+        <v>252</v>
+      </c>
+      <c r="C550" s="8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556">
+      <c r="A556" s="6">
+        <v>259</v>
+      </c>
+      <c r="C556" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="6">
+        <v>259</v>
+      </c>
+      <c r="C557" s="8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="6">
+        <v>259</v>
+      </c>
+      <c r="C558" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="6">
+        <v>259</v>
+      </c>
+      <c r="C559" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="6">
+        <v>259</v>
+      </c>
+      <c r="C560" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="6">
+        <v>259</v>
+      </c>
+      <c r="C561" s="8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="6">
+        <v>260</v>
+      </c>
+      <c r="B562" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="6">
+        <v>260</v>
+      </c>
+      <c r="B563" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="6">
+        <v>261</v>
+      </c>
+      <c r="B564" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="6">
+        <v>261</v>
+      </c>
+      <c r="B565" s="7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="6">
+        <v>261</v>
+      </c>
+      <c r="B566" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="6">
+        <v>262</v>
+      </c>
+      <c r="C567" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="6">
+        <v>262</v>
+      </c>
+      <c r="C568" s="8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="6">
+        <v>263</v>
+      </c>
+      <c r="B569" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="6">
+        <v>263</v>
+      </c>
+      <c r="B570" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="6">
+        <v>263</v>
+      </c>
+      <c r="C571" s="8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="6">
+        <v>263</v>
+      </c>
+      <c r="C572" s="8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="6">
+        <v>263</v>
+      </c>
+      <c r="C573" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="6">
+        <v>263</v>
+      </c>
+      <c r="C574" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="6">
+        <v>263</v>
+      </c>
+      <c r="C575" s="8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="6">
+        <v>264</v>
+      </c>
+      <c r="B576" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="6">
+        <v>264</v>
+      </c>
+      <c r="C577" s="8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="6">
+        <v>264</v>
+      </c>
+      <c r="C578" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="6">
+        <v>264</v>
+      </c>
+      <c r="C579" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="6">
+        <v>265</v>
+      </c>
+      <c r="C580" s="8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="6">
+        <v>265</v>
+      </c>
+      <c r="C581" s="8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="6">
+        <v>265</v>
+      </c>
+      <c r="C582" s="8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="6">
+        <v>265</v>
+      </c>
+      <c r="C583" s="8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="6">
+        <v>266</v>
+      </c>
+      <c r="B584" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="6">
+        <v>267</v>
+      </c>
+      <c r="B585" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="6">
+        <v>268</v>
+      </c>
+      <c r="B586" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="6">
+        <v>269</v>
+      </c>
+      <c r="B587" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="6">
+        <v>270</v>
+      </c>
+      <c r="C588" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="6">
+        <v>270</v>
+      </c>
+      <c r="C589" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="6">
+        <v>270</v>
+      </c>
+      <c r="C590" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="6">
+        <v>271</v>
+      </c>
+      <c r="B591" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="6">
+        <v>272</v>
+      </c>
+      <c r="B592" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595">
+      <c r="A595" s="6">
+        <v>275</v>
+      </c>
+      <c r="C595" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="6">
+        <v>276</v>
+      </c>
+      <c r="C596" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="6">
+        <v>277</v>
+      </c>
+      <c r="B597" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="6">
+        <v>277</v>
+      </c>
+      <c r="B598" s="7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="6">
+        <v>278</v>
+      </c>
+      <c r="C599" s="8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="6">
+        <v>278</v>
+      </c>
+      <c r="C600" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="6">
+        <v>278</v>
+      </c>
+      <c r="B601" s="7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="6">
+        <v>279</v>
+      </c>
+      <c r="C602" s="8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="6">
+        <v>280</v>
+      </c>
+      <c r="C603" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="6">
+        <v>280</v>
+      </c>
+      <c r="C604" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="6">
+        <v>280</v>
+      </c>
+      <c r="C605" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="6">
+        <v>280</v>
+      </c>
+      <c r="C606" s="8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="6">
+        <v>281</v>
+      </c>
+      <c r="C607" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="6">
+        <v>281</v>
+      </c>
+      <c r="C608" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="6">
+        <v>281</v>
+      </c>
+      <c r="C609" s="8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="6">
+        <v>281</v>
+      </c>
+      <c r="C610" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="6">
+        <v>281</v>
+      </c>
+      <c r="C611" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="6">
+        <v>281</v>
+      </c>
+      <c r="B612" s="7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="6">
+        <v>282</v>
+      </c>
+      <c r="C613" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="6">
+        <v>282</v>
+      </c>
+      <c r="B614" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="6">
+        <v>282</v>
+      </c>
+      <c r="C615" s="8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="6">
+        <v>283</v>
+      </c>
+      <c r="C616" s="8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="6">
+        <v>283</v>
+      </c>
+      <c r="B617" s="7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="6">
+        <v>284</v>
+      </c>
+      <c r="C618" s="8">
         <v>178</v>
       </c>
-      <c r="B499" s="7">
+    </row>
+    <row r="619">
+      <c r="A619" s="6">
+        <v>284</v>
+      </c>
+      <c r="C619" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="6">
+        <v>284</v>
+      </c>
+      <c r="C620" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="6">
+        <v>284</v>
+      </c>
+      <c r="C621" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="6">
+        <v>284</v>
+      </c>
+      <c r="C622" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="6">
+        <v>285</v>
+      </c>
+      <c r="C623" s="8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="6">
+        <v>286</v>
+      </c>
+      <c r="B624" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="6">
+        <v>286</v>
+      </c>
+      <c r="C625" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="6">
+        <v>286</v>
+      </c>
+      <c r="C626" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="6">
+        <v>286</v>
+      </c>
+      <c r="C627" s="8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="6">
+        <v>286</v>
+      </c>
+      <c r="C628" s="8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="6">
+        <v>287</v>
+      </c>
+      <c r="B629" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="6">
+        <v>288</v>
+      </c>
+      <c r="B630" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="6">
+        <v>289</v>
+      </c>
+      <c r="C631" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="6">
+        <v>290</v>
+      </c>
+      <c r="B632" s="7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="6">
+        <v>290</v>
+      </c>
+      <c r="B633" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="6">
+        <v>290</v>
+      </c>
+      <c r="B634" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="6">
+        <v>290</v>
+      </c>
+      <c r="B635" s="7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="6">
+        <v>290</v>
+      </c>
+      <c r="B636" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="6">
+        <v>290</v>
+      </c>
+      <c r="B637" s="7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642">
+      <c r="A642" s="6">
+        <v>295</v>
+      </c>
+      <c r="C642" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="643"/>
+    <row r="644">
+      <c r="A644" s="6">
         <v>297</v>
       </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="6">
+      <c r="C644" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649">
+      <c r="A649" s="6">
+        <v>302</v>
+      </c>
+      <c r="B649" s="7">
         <v>303</v>
       </c>
-      <c r="C500" s="8">
+    </row>
+    <row r="650">
+      <c r="A650" s="6">
+        <v>303</v>
+      </c>
+      <c r="C650" s="8">
         <v>302</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="6">
-        <v>302</v>
-      </c>
-      <c r="B501" s="7">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="6">
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655">
+      <c r="A655" s="6">
+        <v>308</v>
+      </c>
+      <c r="C655" s="8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658">
+      <c r="A658" s="6">
         <v>311</v>
       </c>
-      <c r="C502" s="8">
+      <c r="C658" s="8">
         <v>62</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" s="6">
-        <v>62</v>
-      </c>
-      <c r="B503" s="7">
+    <row r="659">
+      <c r="A659" s="6">
         <v>311</v>
       </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="6">
-        <v>311</v>
-      </c>
-      <c r="C504" s="8">
+      <c r="C659" s="8">
         <v>53</v>
       </c>
     </row>
-    <row r="505">
-      <c r="A505" s="6">
-        <v>53</v>
-      </c>
-      <c r="B505" s="7">
-        <v>311</v>
-      </c>
-    </row>
+    <row r="660">
+      <c r="A660" s="6">
+        <v>312</v>
+      </c>
+      <c r="C660" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="6">
+        <v>312</v>
+      </c>
+      <c r="C661" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668">
+      <c r="A668" s="6">
+        <v>322</v>
+      </c>
+      <c r="B668" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671">
+      <c r="A671" s="6">
+        <v>325</v>
+      </c>
+      <c r="C671" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675">
+      <c r="A675" s="6">
+        <v>329</v>
+      </c>
+      <c r="B675" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="6">
+        <v>329</v>
+      </c>
+      <c r="B676" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688">
+      <c r="A688" s="6">
+        <v>341</v>
+      </c>
+      <c r="B688" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699">
+      <c r="A699" s="6">
+        <v>352</v>
+      </c>
+      <c r="C699" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="6">
+        <v>352</v>
+      </c>
+      <c r="C700" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="701"/>
+    <row r="702">
+      <c r="A702" s="6">
+        <v>354</v>
+      </c>
+      <c r="C702" s="8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="6">
+        <v>354</v>
+      </c>
+      <c r="C703" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="6">
+        <v>354</v>
+      </c>
+      <c r="C704" s="8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="6">
+        <v>354</v>
+      </c>
+      <c r="C705" s="8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="6">
+        <v>354</v>
+      </c>
+      <c r="C706" s="8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="6">
+        <v>355</v>
+      </c>
+      <c r="B707" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="6">
+        <v>355</v>
+      </c>
+      <c r="B708" s="7">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="6">
+        <v>356</v>
+      </c>
+      <c r="B709" s="7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="6">
+        <v>357</v>
+      </c>
+      <c r="B710" s="7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715">
+      <c r="A715" s="6">
+        <v>362</v>
+      </c>
+      <c r="B715" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="6">
+        <v>362</v>
+      </c>
+      <c r="B716" s="7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="6">
+        <v>362</v>
+      </c>
+      <c r="B717" s="7">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="6">
+        <v>363</v>
+      </c>
+      <c r="C718" s="8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="6">
+        <v>364</v>
+      </c>
+      <c r="C719" s="8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722">
+      <c r="A722" s="6">
+        <v>367</v>
+      </c>
+      <c r="C722" s="8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="6">
+        <v>367</v>
+      </c>
+      <c r="C723" s="8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="6">
+        <v>368</v>
+      </c>
+      <c r="B724" s="7">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="725"/>
   </sheetData>
 </worksheet>
 </file>
--- a/raw/Concepthierarchy.xlsx
+++ b/raw/Concepthierarchy.xlsx
@@ -11,13 +11,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>x_concepthierarchy::concept_id</t>
+    <t>concept_id</t>
   </si>
   <si>
-    <t>x_concepthierarchy::concept_child_id</t>
+    <t>concept_child_id</t>
   </si>
   <si>
-    <t>x_concepthierarchy::concept_parent_id</t>
+    <t>concept_parent_id</t>
   </si>
 </sst>
 </file>
@@ -108,18 +108,18 @@
     </row>
     <row r="2">
       <c r="A2" s="6">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8">
         <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
-        <v>2</v>
+      <c r="B3" s="7">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -127,268 +127,268 @@
         <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
         <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
-        <v>54</v>
+      <c r="C6" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
         <v>1</v>
-      </c>
-      <c r="B7" s="7">
-        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="7">
-        <v>110</v>
+      <c r="C8" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
         <v>1</v>
-      </c>
-      <c r="B9" s="7">
-        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="8">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="7">
-        <v>199</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7">
-        <v>166</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>2</v>
-      </c>
-      <c r="B18" s="7">
-        <v>134</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="8">
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B19" s="7">
-        <v>139</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6">
-        <v>2</v>
-      </c>
-      <c r="B20" s="7">
-        <v>179</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6">
-        <v>8</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="8">
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B23" s="7">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C24" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B25" s="7">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>10</v>
-      </c>
-      <c r="B26" s="7">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>11</v>
-      </c>
-      <c r="C27" s="8">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="B27" s="7">
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C28" s="8">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>11</v>
-      </c>
-      <c r="C29" s="8">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="B29" s="7">
+        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C30" s="8">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6">
-        <v>12</v>
-      </c>
-      <c r="C31" s="8">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="B31" s="7">
+        <v>57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C32" s="8">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B33" s="7">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C34" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6">
-        <v>14</v>
-      </c>
-      <c r="C35" s="8">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="B35" s="7">
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C36" s="8">
-        <v>260</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B37" s="7">
         <v>16</v>
@@ -396,826 +396,938 @@
     </row>
     <row r="38">
       <c r="A38" s="6">
+        <v>16</v>
+      </c>
+      <c r="C38" s="8">
         <v>15</v>
-      </c>
-      <c r="B38" s="7">
-        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6">
+        <v>15</v>
+      </c>
+      <c r="B39" s="7">
         <v>16</v>
-      </c>
-      <c r="C39" s="8">
-        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C40" s="8">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6">
-        <v>17</v>
-      </c>
-      <c r="C41" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42"/>
+        <v>24</v>
+      </c>
+      <c r="B41" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6">
+        <v>62</v>
+      </c>
+      <c r="C42" s="8">
+        <v>63</v>
+      </c>
+    </row>
     <row r="43">
       <c r="A43" s="6">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B43" s="7">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6">
-        <v>19</v>
-      </c>
-      <c r="B44" s="7">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="C44" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B45" s="7">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6">
-        <v>19</v>
-      </c>
-      <c r="B46" s="7">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B47" s="7">
-        <v>150</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6">
-        <v>19</v>
-      </c>
-      <c r="B48" s="7">
-        <v>259</v>
+        <v>2</v>
+      </c>
+      <c r="C48" s="8">
+        <v>66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B49" s="7">
-        <v>270</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C50" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6">
-        <v>19</v>
-      </c>
-      <c r="C51" s="8">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="B51" s="7">
+        <v>67</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6">
-        <v>19</v>
-      </c>
-      <c r="B52" s="7">
-        <v>354</v>
+        <v>64</v>
+      </c>
+      <c r="C52" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B53" s="7">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C54" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B55" s="7">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>21</v>
-      </c>
-      <c r="B56" s="7">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="C56" s="8">
+        <v>66</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B57" s="7">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>22</v>
-      </c>
-      <c r="B58" s="7">
-        <v>286</v>
+        <v>70</v>
+      </c>
+      <c r="C58" s="8">
+        <v>66</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>22</v>
-      </c>
-      <c r="C59" s="8">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B59" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>22</v>
-      </c>
-      <c r="C60" s="8">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="61"/>
+        <v>70</v>
+      </c>
+      <c r="B60" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6">
+        <v>69</v>
+      </c>
+      <c r="C61" s="8">
+        <v>70</v>
+      </c>
+    </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>24</v>
-      </c>
-      <c r="B62" s="7">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="C62" s="8">
+        <v>69</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B63" s="7">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>24</v>
-      </c>
-      <c r="B64" s="7">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="C64" s="8">
+        <v>62</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B65" s="7">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>25</v>
-      </c>
-      <c r="B66" s="7">
-        <v>259</v>
+        <v>74</v>
+      </c>
+      <c r="C66" s="8">
+        <v>71</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B67" s="7">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>25</v>
-      </c>
-      <c r="B68" s="7">
-        <v>270</v>
+        <v>75</v>
+      </c>
+      <c r="C68" s="8">
+        <v>71</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B69" s="7">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="70"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6">
+        <v>75</v>
+      </c>
+      <c r="C70" s="8">
+        <v>10</v>
+      </c>
+    </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>27</v>
-      </c>
-      <c r="C71" s="8">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="B71" s="7">
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C72" s="8">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6">
-        <v>27</v>
-      </c>
-      <c r="C73" s="8">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="B73" s="7">
+        <v>57</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C74" s="8">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B75" s="7">
-        <v>280</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>29</v>
-      </c>
-      <c r="B76" s="7">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="C76" s="8">
+        <v>57</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>30</v>
-      </c>
-      <c r="C77" s="8">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="B77" s="7">
+        <v>54</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6">
+        <v>74</v>
+      </c>
+      <c r="C78" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6">
+        <v>64</v>
+      </c>
+      <c r="B79" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6">
         <v>30</v>
       </c>
-      <c r="C78" s="8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79"/>
-    <row r="80"/>
+      <c r="C80" s="8">
+        <v>50</v>
+      </c>
+    </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B81" s="7">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C82" s="8">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6">
+        <v>47</v>
+      </c>
+      <c r="C84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6">
+        <v>1</v>
+      </c>
+      <c r="B85" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6">
         <v>35</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C86" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6">
+        <v>98</v>
+      </c>
+      <c r="B87" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6">
+        <v>35</v>
+      </c>
+      <c r="C88" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
+    <row r="89">
+      <c r="A89" s="6">
+        <v>68</v>
+      </c>
+      <c r="B89" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6">
+        <v>48</v>
+      </c>
+      <c r="C90" s="8">
+        <v>79</v>
+      </c>
+    </row>
     <row r="91">
       <c r="A91" s="6">
-        <v>43</v>
-      </c>
-      <c r="C91" s="8">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="B91" s="7">
+        <v>48</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C92" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6">
+        <v>58</v>
+      </c>
+      <c r="B93" s="7">
+        <v>48</v>
+      </c>
+    </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C94" s="8">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>46</v>
-      </c>
-      <c r="C95" s="8">
-        <v>19</v>
+        <v>69</v>
+      </c>
+      <c r="B95" s="7">
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C96" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>46</v>
-      </c>
-      <c r="C97" s="8">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B97" s="7">
+        <v>99</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>47</v>
-      </c>
-      <c r="B98" s="7">
-        <v>46</v>
+        <v>99</v>
+      </c>
+      <c r="C98" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>47</v>
-      </c>
-      <c r="C99" s="8">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="B99" s="7">
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>47</v>
-      </c>
-      <c r="B100" s="7">
         <v>99</v>
+      </c>
+      <c r="C100" s="8">
+        <v>59</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>47</v>
-      </c>
-      <c r="C101" s="8">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="B101" s="7">
+        <v>99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C102" s="8">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B103" s="7">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>47</v>
-      </c>
-      <c r="B104" s="7">
-        <v>143</v>
+        <v>101</v>
+      </c>
+      <c r="C104" s="8">
+        <v>69</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B105" s="7">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>47</v>
-      </c>
-      <c r="B106" s="7">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="C106" s="8">
+        <v>79</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B107" s="7">
-        <v>227</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C108" s="8">
-        <v>290</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B109" s="7">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>47</v>
-      </c>
-      <c r="B110" s="7">
-        <v>312</v>
+        <v>11</v>
+      </c>
+      <c r="C110" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B111" s="7">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C112" s="8">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>48</v>
-      </c>
-      <c r="C113" s="8">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="B113" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>48</v>
-      </c>
-      <c r="B114" s="7">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="C114" s="8">
+        <v>62</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B115" s="7">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>48</v>
-      </c>
-      <c r="B116" s="7">
-        <v>131</v>
+        <v>11</v>
+      </c>
+      <c r="C116" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B117" s="7">
-        <v>135</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>49</v>
-      </c>
-      <c r="B118" s="7">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C118" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6">
-        <v>49</v>
-      </c>
-      <c r="C119" s="8">
-        <v>58</v>
+        <v>19</v>
+      </c>
+      <c r="B119" s="7">
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>49</v>
-      </c>
-      <c r="B120" s="7">
-        <v>110</v>
+        <v>47</v>
+      </c>
+      <c r="C120" s="8">
+        <v>102</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B121" s="7">
-        <v>123</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>49</v>
-      </c>
-      <c r="B122" s="7">
-        <v>136</v>
+        <v>70</v>
+      </c>
+      <c r="C122" s="8">
+        <v>105</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B123" s="7">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>49</v>
-      </c>
-      <c r="B124" s="7">
-        <v>149</v>
+        <v>69</v>
+      </c>
+      <c r="C124" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B125" s="7">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>50</v>
-      </c>
-      <c r="B126" s="7">
-        <v>30</v>
+        <v>110</v>
+      </c>
+      <c r="C126" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B127" s="7">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C128" s="8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129"/>
-    <row r="130"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6">
+        <v>59</v>
+      </c>
+      <c r="B129" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="6">
+        <v>110</v>
+      </c>
+      <c r="C130" s="8">
+        <v>112</v>
+      </c>
+    </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B131" s="7">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6">
-        <v>53</v>
-      </c>
-      <c r="B132" s="7">
-        <v>241</v>
+        <v>110</v>
+      </c>
+      <c r="C132" s="8">
+        <v>58</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B133" s="7">
-        <v>311</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C134" s="8">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>54</v>
-      </c>
-      <c r="C135" s="8">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="B135" s="7">
+        <v>110</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C136" s="8">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6">
-        <v>55</v>
-      </c>
-      <c r="C137" s="8">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="138"/>
+        <v>48</v>
+      </c>
+      <c r="B137" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6">
+        <v>113</v>
+      </c>
+      <c r="C138" s="8">
+        <v>114</v>
+      </c>
+    </row>
     <row r="139">
       <c r="A139" s="6">
-        <v>57</v>
-      </c>
-      <c r="C139" s="8">
-        <v>58</v>
+        <v>114</v>
+      </c>
+      <c r="B139" s="7">
+        <v>113</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C140" s="8">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>57</v>
-      </c>
-      <c r="C141" s="8">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="B141" s="7">
+        <v>113</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>57</v>
-      </c>
-      <c r="B142" s="7">
-        <v>54</v>
+        <v>113</v>
+      </c>
+      <c r="C142" s="8">
+        <v>115</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B143" s="7">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>57</v>
-      </c>
-      <c r="B144" s="7">
-        <v>155</v>
+        <v>113</v>
+      </c>
+      <c r="C144" s="8">
+        <v>116</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B145" s="7">
-        <v>281</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>58</v>
-      </c>
-      <c r="B146" s="7">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="C146" s="8">
+        <v>66</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B147" s="7">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>58</v>
-      </c>
-      <c r="B148" s="7">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="C148" s="8">
+        <v>117</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B149" s="7">
-        <v>110</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>58</v>
-      </c>
-      <c r="B150" s="7">
-        <v>123</v>
+        <v>27</v>
+      </c>
+      <c r="C150" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B151" s="7">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>58</v>
-      </c>
-      <c r="B152" s="7">
-        <v>137</v>
+        <v>118</v>
+      </c>
+      <c r="C152" s="8">
+        <v>119</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B153" s="7">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6">
+        <v>118</v>
+      </c>
+      <c r="C154" s="8">
         <v>59</v>
-      </c>
-      <c r="B154" s="7">
-        <v>99</v>
       </c>
     </row>
     <row r="155">
@@ -1223,2062 +1335,2188 @@
         <v>59</v>
       </c>
       <c r="B155" s="7">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>59</v>
-      </c>
-      <c r="B156" s="7">
         <v>118</v>
+      </c>
+      <c r="C156" s="8">
+        <v>90</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B157" s="7">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6">
-        <v>59</v>
-      </c>
-      <c r="B158" s="7">
-        <v>139</v>
+        <v>120</v>
+      </c>
+      <c r="C158" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B159" s="7">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>59</v>
-      </c>
-      <c r="B160" s="7">
-        <v>223</v>
+        <v>121</v>
+      </c>
+      <c r="C160" s="8">
+        <v>120</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B161" s="7">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C162" s="8">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>62</v>
-      </c>
-      <c r="C163" s="8">
-        <v>24</v>
+        <v>120</v>
+      </c>
+      <c r="B163" s="7">
+        <v>122</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C164" s="8">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B165" s="7">
-        <v>72</v>
+        <v>123</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>62</v>
-      </c>
-      <c r="B166" s="7">
-        <v>11</v>
+        <v>123</v>
+      </c>
+      <c r="C166" s="8">
+        <v>99</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B167" s="7">
-        <v>311</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>63</v>
-      </c>
-      <c r="B168" s="7">
-        <v>62</v>
+        <v>123</v>
+      </c>
+      <c r="C168" s="8">
+        <v>106</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="B169" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C170" s="8">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>64</v>
-      </c>
-      <c r="C171" s="8">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="B171" s="7">
+        <v>123</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C172" s="8">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B173" s="7">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6">
-        <v>64</v>
-      </c>
-      <c r="B174" s="7">
-        <v>179</v>
+        <v>123</v>
+      </c>
+      <c r="C174" s="8">
+        <v>125</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B175" s="7">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6">
-        <v>64</v>
-      </c>
-      <c r="B176" s="7">
-        <v>227</v>
+        <v>106</v>
+      </c>
+      <c r="C176" s="8">
+        <v>128</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B177" s="7">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6">
-        <v>64</v>
-      </c>
-      <c r="B178" s="7">
-        <v>281</v>
+        <v>129</v>
+      </c>
+      <c r="C178" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B179" s="7">
-        <v>284</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6">
-        <v>64</v>
-      </c>
-      <c r="B180" s="7">
-        <v>312</v>
+        <v>130</v>
+      </c>
+      <c r="C180" s="8">
+        <v>48</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B181" s="7">
-        <v>352</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6">
-        <v>65</v>
-      </c>
-      <c r="B182" s="7">
-        <v>67</v>
+        <v>131</v>
+      </c>
+      <c r="C182" s="8">
+        <v>48</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B183" s="7">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6">
-        <v>65</v>
-      </c>
-      <c r="B184" s="7">
-        <v>27</v>
+        <v>132</v>
+      </c>
+      <c r="C184" s="8">
+        <v>131</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="6">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B185" s="7">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6">
-        <v>65</v>
-      </c>
-      <c r="B186" s="7">
-        <v>182</v>
+        <v>134</v>
+      </c>
+      <c r="C186" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B187" s="7">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6">
-        <v>65</v>
-      </c>
-      <c r="B188" s="7">
-        <v>284</v>
+        <v>134</v>
+      </c>
+      <c r="C188" s="8">
+        <v>59</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B189" s="7">
-        <v>286</v>
+        <v>134</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6">
-        <v>65</v>
-      </c>
-      <c r="B190" s="7">
-        <v>22</v>
+        <v>134</v>
+      </c>
+      <c r="C190" s="8">
+        <v>135</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B191" s="7">
-        <v>352</v>
+        <v>134</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>66</v>
-      </c>
-      <c r="B192" s="7">
-        <v>2</v>
+        <v>134</v>
+      </c>
+      <c r="C192" s="8">
+        <v>136</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="B193" s="7">
-        <v>68</v>
+        <v>134</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>66</v>
-      </c>
-      <c r="B194" s="7">
-        <v>70</v>
+        <v>133</v>
+      </c>
+      <c r="C194" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B195" s="7">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6">
-        <v>66</v>
-      </c>
-      <c r="B196" s="7">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="C196" s="8">
+        <v>47</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B197" s="7">
-        <v>50</v>
+        <v>133</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>66</v>
-      </c>
-      <c r="B198" s="7">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="C198" s="8">
+        <v>135</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="B199" s="7">
-        <v>282</v>
+        <v>133</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>66</v>
-      </c>
-      <c r="B200" s="7">
-        <v>19</v>
+        <v>135</v>
+      </c>
+      <c r="C200" s="8">
+        <v>79</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>67</v>
-      </c>
-      <c r="C201" s="8">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="B201" s="7">
+        <v>135</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>67</v>
-      </c>
-      <c r="B202" s="7">
-        <v>64</v>
+        <v>135</v>
+      </c>
+      <c r="C202" s="8">
+        <v>125</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>68</v>
-      </c>
-      <c r="C203" s="8">
-        <v>66</v>
+        <v>125</v>
+      </c>
+      <c r="B203" s="7">
+        <v>135</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6">
-        <v>68</v>
-      </c>
-      <c r="B204" s="7">
-        <v>35</v>
+        <v>135</v>
+      </c>
+      <c r="C204" s="8">
+        <v>131</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B205" s="7">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>68</v>
-      </c>
-      <c r="B206" s="7">
-        <v>284</v>
+        <v>135</v>
+      </c>
+      <c r="C206" s="8">
+        <v>106</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B207" s="7">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="C208" s="8">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B209" s="7">
-        <v>71</v>
+        <v>135</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6">
-        <v>69</v>
-      </c>
-      <c r="B210" s="7">
-        <v>99</v>
+        <v>136</v>
+      </c>
+      <c r="C210" s="8">
+        <v>79</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B211" s="7">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C212" s="8">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B213" s="7">
-        <v>281</v>
+        <v>136</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="C214" s="8">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="B215" s="7">
-        <v>69</v>
+        <v>136</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6">
-        <v>70</v>
-      </c>
-      <c r="B216" s="7">
-        <v>98</v>
+        <v>136</v>
+      </c>
+      <c r="C216" s="8">
+        <v>138</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6">
-        <v>70</v>
-      </c>
-      <c r="C217" s="8">
-        <v>105</v>
+        <v>138</v>
+      </c>
+      <c r="B217" s="7">
+        <v>136</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6">
-        <v>70</v>
-      </c>
-      <c r="B218" s="7">
-        <v>97</v>
+        <v>136</v>
+      </c>
+      <c r="C218" s="8">
+        <v>137</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>71</v>
-      </c>
-      <c r="C219" s="8">
-        <v>69</v>
+        <v>137</v>
+      </c>
+      <c r="B219" s="7">
+        <v>136</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6">
-        <v>71</v>
-      </c>
-      <c r="B220" s="7">
-        <v>74</v>
+        <v>139</v>
+      </c>
+      <c r="C220" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B221" s="7">
-        <v>75</v>
+        <v>139</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C222" s="8">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>73</v>
-      </c>
-      <c r="C223" s="8">
-        <v>157</v>
+        <v>135</v>
+      </c>
+      <c r="B223" s="7">
+        <v>139</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C224" s="8">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>73</v>
-      </c>
-      <c r="C225" s="8">
-        <v>211</v>
+        <v>136</v>
+      </c>
+      <c r="B225" s="7">
+        <v>139</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C226" s="8">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6">
-        <v>75</v>
-      </c>
-      <c r="C227" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="228"/>
-    <row r="229"/>
+        <v>59</v>
+      </c>
+      <c r="B227" s="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="6">
+        <v>141</v>
+      </c>
+      <c r="C228" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="6">
+        <v>66</v>
+      </c>
+      <c r="B229" s="7">
+        <v>141</v>
+      </c>
+    </row>
     <row r="230">
       <c r="A230" s="6">
-        <v>78</v>
-      </c>
-      <c r="B230" s="7">
-        <v>264</v>
+        <v>43</v>
+      </c>
+      <c r="C230" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6">
-        <v>78</v>
-      </c>
-      <c r="C231" s="8">
-        <v>329</v>
+        <v>10</v>
+      </c>
+      <c r="B231" s="7">
+        <v>43</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>79</v>
-      </c>
-      <c r="B232" s="7">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="C232" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B233" s="7">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6">
-        <v>79</v>
-      </c>
-      <c r="B234" s="7">
-        <v>48</v>
+        <v>143</v>
+      </c>
+      <c r="C234" s="8">
+        <v>47</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B235" s="7">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6">
-        <v>79</v>
-      </c>
-      <c r="B236" s="7">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="C236" s="8">
+        <v>145</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="6">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="B237" s="7">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="6">
-        <v>79</v>
-      </c>
-      <c r="B238" s="7">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="C238" s="8">
+        <v>144</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="6">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="B239" s="7">
-        <v>171</v>
+        <v>143</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6">
-        <v>79</v>
-      </c>
-      <c r="B240" s="7">
-        <v>259</v>
+        <v>143</v>
+      </c>
+      <c r="C240" s="8">
+        <v>106</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B241" s="7">
-        <v>278</v>
+        <v>143</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6">
-        <v>79</v>
-      </c>
-      <c r="B242" s="7">
-        <v>280</v>
+        <v>143</v>
+      </c>
+      <c r="C242" s="8">
+        <v>49</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B243" s="7">
-        <v>223</v>
+        <v>143</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>79</v>
-      </c>
-      <c r="B244" s="7">
-        <v>137</v>
+        <v>146</v>
+      </c>
+      <c r="C244" s="8">
+        <v>112</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B245" s="7">
-        <v>30</v>
+        <v>146</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6">
-        <v>82</v>
-      </c>
-      <c r="B246" s="7">
-        <v>259</v>
+        <v>146</v>
+      </c>
+      <c r="C246" s="8">
+        <v>130</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B247" s="7">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="248"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="6">
+        <v>146</v>
+      </c>
+      <c r="C248" s="8">
+        <v>132</v>
+      </c>
+    </row>
     <row r="249">
       <c r="A249" s="6">
-        <v>84</v>
-      </c>
-      <c r="C249" s="8">
-        <v>106</v>
+        <v>132</v>
+      </c>
+      <c r="B249" s="7">
+        <v>146</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C250" s="8">
-        <v>49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6">
-        <v>84</v>
-      </c>
-      <c r="C251" s="8">
-        <v>125</v>
+        <v>146</v>
+      </c>
+      <c r="B251" s="7">
+        <v>148</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C252" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="6">
+        <v>106</v>
+      </c>
+      <c r="B253" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="6">
+        <v>148</v>
+      </c>
+      <c r="C254" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="6">
+        <v>125</v>
+      </c>
+      <c r="B255" s="7">
+        <v>148</v>
+      </c>
+    </row>
     <row r="256">
       <c r="A256" s="6">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C256" s="8">
-        <v>34</v>
+        <v>132</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6">
-        <v>88</v>
-      </c>
-      <c r="C257" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="258"/>
+        <v>132</v>
+      </c>
+      <c r="B257" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="6">
+        <v>148</v>
+      </c>
+      <c r="C258" s="8">
+        <v>130</v>
+      </c>
+    </row>
     <row r="259">
       <c r="A259" s="6">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B259" s="7">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6">
-        <v>90</v>
-      </c>
-      <c r="B260" s="7">
-        <v>281</v>
+        <v>149</v>
+      </c>
+      <c r="C260" s="8">
+        <v>49</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B261" s="7">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="6">
+        <v>149</v>
+      </c>
+      <c r="C262" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="6">
+        <v>125</v>
+      </c>
+      <c r="B263" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="6">
+        <v>149</v>
+      </c>
+      <c r="C264" s="8">
+        <v>130</v>
+      </c>
+    </row>
     <row r="265">
       <c r="A265" s="6">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B265" s="7">
-        <v>235</v>
+        <v>149</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6">
-        <v>96</v>
-      </c>
-      <c r="B266" s="7">
-        <v>235</v>
+        <v>149</v>
+      </c>
+      <c r="C266" s="8">
+        <v>132</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6">
-        <v>97</v>
-      </c>
-      <c r="C267" s="8">
-        <v>64</v>
+        <v>132</v>
+      </c>
+      <c r="B267" s="7">
+        <v>149</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="C268" s="8">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>97</v>
-      </c>
-      <c r="C269" s="8">
-        <v>70</v>
+        <v>19</v>
+      </c>
+      <c r="B269" s="7">
+        <v>150</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="C270" s="8">
-        <v>322</v>
+        <v>106</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B271" s="7">
-        <v>35</v>
+        <v>150</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="6">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C272" s="8">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6">
-        <v>98</v>
-      </c>
-      <c r="C273" s="8">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="B273" s="7">
+        <v>150</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6">
-        <v>98</v>
-      </c>
-      <c r="B274" s="7">
-        <v>241</v>
+        <v>152</v>
+      </c>
+      <c r="C274" s="8">
+        <v>59</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6">
-        <v>99</v>
-      </c>
-      <c r="C275" s="8">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="B275" s="7">
+        <v>152</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C276" s="8">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6">
-        <v>99</v>
-      </c>
-      <c r="C277" s="8">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="B277" s="7">
+        <v>152</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C278" s="8">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B279" s="7">
-        <v>113</v>
+        <v>153</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>99</v>
-      </c>
-      <c r="B280" s="7">
-        <v>123</v>
+        <v>153</v>
+      </c>
+      <c r="C280" s="8">
+        <v>24</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B281" s="7">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6">
-        <v>100</v>
-      </c>
-      <c r="B282" s="7">
-        <v>99</v>
+        <v>153</v>
+      </c>
+      <c r="C282" s="8">
+        <v>53</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6">
-        <v>101</v>
-      </c>
-      <c r="C283" s="8">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="B283" s="7">
+        <v>153</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C284" s="8">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B285" s="7">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6">
-        <v>102</v>
-      </c>
-      <c r="B286" s="7">
-        <v>47</v>
+        <v>155</v>
+      </c>
+      <c r="C286" s="8">
+        <v>135</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="6">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B287" s="7">
-        <v>204</v>
+        <v>155</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6">
-        <v>104</v>
-      </c>
-      <c r="B288" s="7">
-        <v>241</v>
+        <v>156</v>
+      </c>
+      <c r="C288" s="8">
+        <v>79</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B289" s="7">
-        <v>70</v>
+        <v>156</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B290" s="7">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C291" s="8">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6">
-        <v>106</v>
-      </c>
-      <c r="B292" s="7">
-        <v>135</v>
+        <v>171</v>
+      </c>
+      <c r="C292" s="8">
+        <v>79</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B293" s="7">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6">
-        <v>106</v>
-      </c>
-      <c r="B294" s="7">
-        <v>148</v>
+        <v>179</v>
+      </c>
+      <c r="C294" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="B295" s="7">
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6">
-        <v>106</v>
-      </c>
-      <c r="B296" s="7">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="297"/>
-    <row r="298"/>
+        <v>179</v>
+      </c>
+      <c r="C296" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="6">
+        <v>178</v>
+      </c>
+      <c r="B297" s="7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="6">
+        <v>179</v>
+      </c>
+      <c r="C298" s="8">
+        <v>64</v>
+      </c>
+    </row>
     <row r="299">
       <c r="A299" s="6">
-        <v>110</v>
-      </c>
-      <c r="C299" s="8">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B299" s="7">
+        <v>179</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C300" s="8">
-        <v>59</v>
+        <v>179</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6">
-        <v>110</v>
-      </c>
-      <c r="C301" s="8">
-        <v>112</v>
+        <v>179</v>
+      </c>
+      <c r="B301" s="7">
+        <v>180</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C302" s="8">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>110</v>
-      </c>
-      <c r="C303" s="8">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="B303" s="7">
+        <v>180</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="C304" s="8">
-        <v>48</v>
+        <v>179</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>111</v>
-      </c>
-      <c r="C305" s="8">
-        <v>290</v>
+        <v>179</v>
+      </c>
+      <c r="B305" s="7">
+        <v>181</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="6">
-        <v>112</v>
-      </c>
-      <c r="B306" s="7">
-        <v>110</v>
+        <v>181</v>
+      </c>
+      <c r="C306" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="6">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="B307" s="7">
-        <v>146</v>
+        <v>181</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="C308" s="8">
-        <v>114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6">
-        <v>113</v>
-      </c>
-      <c r="C309" s="8">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="B309" s="7">
+        <v>199</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="6">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="C310" s="8">
-        <v>115</v>
+        <v>177</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6">
-        <v>113</v>
-      </c>
-      <c r="C311" s="8">
-        <v>116</v>
+        <v>177</v>
+      </c>
+      <c r="B311" s="7">
+        <v>199</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="6">
-        <v>113</v>
-      </c>
-      <c r="B312" s="7">
-        <v>136</v>
+        <v>201</v>
+      </c>
+      <c r="C312" s="8">
+        <v>202</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B313" s="7">
-        <v>113</v>
+        <v>201</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6">
-        <v>115</v>
-      </c>
-      <c r="B314" s="7">
-        <v>113</v>
+        <v>182</v>
+      </c>
+      <c r="C314" s="8">
+        <v>64</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="6">
-        <v>115</v>
-      </c>
-      <c r="C315" s="8">
-        <v>290</v>
+        <v>64</v>
+      </c>
+      <c r="B315" s="7">
+        <v>182</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="6">
-        <v>115</v>
-      </c>
-      <c r="B316" s="7">
-        <v>137</v>
+        <v>182</v>
+      </c>
+      <c r="C316" s="8">
+        <v>65</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B317" s="7">
-        <v>113</v>
+        <v>182</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="C318" s="8">
-        <v>290</v>
+        <v>104</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B319" s="7">
-        <v>137</v>
+        <v>204</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>117</v>
-      </c>
-      <c r="B320" s="7">
-        <v>27</v>
+        <v>205</v>
+      </c>
+      <c r="C320" s="8">
+        <v>145</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="6">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="B321" s="7">
-        <v>280</v>
+        <v>205</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="C322" s="8">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="6">
-        <v>118</v>
-      </c>
-      <c r="C323" s="8">
-        <v>59</v>
+        <v>199</v>
+      </c>
+      <c r="B323" s="7">
+        <v>195</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="6">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C324" s="8">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6">
-        <v>118</v>
-      </c>
-      <c r="C325" s="8">
-        <v>60</v>
+        <v>157</v>
+      </c>
+      <c r="B325" s="7">
+        <v>73</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6">
-        <v>119</v>
-      </c>
-      <c r="B326" s="7">
-        <v>118</v>
+        <v>73</v>
+      </c>
+      <c r="C326" s="8">
+        <v>173</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B327" s="7">
-        <v>280</v>
+        <v>73</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C328" s="8">
-        <v>65</v>
+        <v>211</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="B329" s="7">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6">
-        <v>120</v>
-      </c>
-      <c r="B330" s="7">
-        <v>122</v>
+        <v>88</v>
+      </c>
+      <c r="C330" s="8">
+        <v>34</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="6">
-        <v>121</v>
-      </c>
-      <c r="C331" s="8">
-        <v>120</v>
+        <v>34</v>
+      </c>
+      <c r="B331" s="7">
+        <v>88</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="6">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C332" s="8">
-        <v>120</v>
+        <v>47</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="6">
-        <v>123</v>
-      </c>
-      <c r="C333" s="8">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="B333" s="7">
+        <v>88</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="6">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="C334" s="8">
-        <v>99</v>
+        <v>227</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="6">
-        <v>123</v>
-      </c>
-      <c r="C335" s="8">
-        <v>106</v>
+        <v>227</v>
+      </c>
+      <c r="B335" s="7">
+        <v>226</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="6">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="C336" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="6">
-        <v>123</v>
-      </c>
-      <c r="C337" s="8">
-        <v>125</v>
+        <v>47</v>
+      </c>
+      <c r="B337" s="7">
+        <v>227</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="6">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="C338" s="8">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="6">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B339" s="7">
-        <v>123</v>
+        <v>227</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="6">
-        <v>125</v>
-      </c>
-      <c r="B340" s="7">
-        <v>135</v>
+        <v>50</v>
+      </c>
+      <c r="C340" s="8">
+        <v>66</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="6">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="B341" s="7">
-        <v>148</v>
+        <v>50</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="6">
-        <v>125</v>
-      </c>
-      <c r="B342" s="7">
-        <v>149</v>
+        <v>20</v>
+      </c>
+      <c r="C342" s="8">
+        <v>68</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="6">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B343" s="7">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="344"/>
-    <row r="345"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="6">
+        <v>234</v>
+      </c>
+      <c r="C344" s="8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="6">
+        <v>227</v>
+      </c>
+      <c r="B345" s="7">
+        <v>234</v>
+      </c>
+    </row>
     <row r="346">
       <c r="A346" s="6">
-        <v>128</v>
-      </c>
-      <c r="B346" s="7">
-        <v>106</v>
+        <v>235</v>
+      </c>
+      <c r="C346" s="8">
+        <v>95</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B347" s="7">
-        <v>137</v>
+        <v>235</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="6">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="C348" s="8">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="6">
-        <v>130</v>
-      </c>
-      <c r="C349" s="8">
-        <v>48</v>
+        <v>96</v>
+      </c>
+      <c r="B349" s="7">
+        <v>235</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="6">
-        <v>130</v>
-      </c>
-      <c r="B350" s="7">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="C350" s="8">
+        <v>66</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="B351" s="7">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="6">
-        <v>130</v>
-      </c>
-      <c r="B352" s="7">
-        <v>149</v>
+        <v>241</v>
+      </c>
+      <c r="C352" s="8">
+        <v>98</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="6">
-        <v>131</v>
-      </c>
-      <c r="C353" s="8">
-        <v>48</v>
+        <v>98</v>
+      </c>
+      <c r="B353" s="7">
+        <v>241</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="6">
-        <v>131</v>
-      </c>
-      <c r="B354" s="7">
-        <v>132</v>
+        <v>241</v>
+      </c>
+      <c r="C354" s="8">
+        <v>104</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="6">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B355" s="7">
-        <v>135</v>
+        <v>241</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="6">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="C356" s="8">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="6">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="B357" s="7">
-        <v>146</v>
+        <v>241</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="6">
-        <v>132</v>
-      </c>
-      <c r="B358" s="7">
-        <v>148</v>
+        <v>241</v>
+      </c>
+      <c r="C358" s="8">
+        <v>143</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="6">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B359" s="7">
-        <v>149</v>
+        <v>241</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="6">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="C360" s="8">
-        <v>19</v>
+        <v>242</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="6">
-        <v>133</v>
-      </c>
-      <c r="C361" s="8">
-        <v>47</v>
+        <v>242</v>
+      </c>
+      <c r="B361" s="7">
+        <v>241</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="C362" s="8">
-        <v>135</v>
+        <v>64</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="B363" s="7">
-        <v>367</v>
+        <v>97</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="6">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C364" s="8">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="6">
-        <v>134</v>
-      </c>
-      <c r="C365" s="8">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="B365" s="7">
+        <v>97</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="6">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="C366" s="8">
-        <v>135</v>
+        <v>251</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="6">
-        <v>134</v>
-      </c>
-      <c r="C367" s="8">
-        <v>136</v>
+        <v>251</v>
+      </c>
+      <c r="B367" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="6">
-        <v>135</v>
-      </c>
-      <c r="B368" s="7">
-        <v>134</v>
+        <v>162</v>
+      </c>
+      <c r="C368" s="8">
+        <v>250</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="6">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="B369" s="7">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="6">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C370" s="8">
-        <v>79</v>
+        <v>250</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="6">
-        <v>135</v>
-      </c>
-      <c r="C371" s="8">
-        <v>125</v>
+        <v>250</v>
+      </c>
+      <c r="B371" s="7">
+        <v>161</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="6">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="C372" s="8">
-        <v>131</v>
+        <v>209</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="6">
-        <v>135</v>
-      </c>
-      <c r="C373" s="8">
-        <v>106</v>
+        <v>209</v>
+      </c>
+      <c r="B373" s="7">
+        <v>252</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="6">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="C374" s="8">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="6">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="B375" s="7">
-        <v>139</v>
+        <v>259</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="6">
-        <v>135</v>
-      </c>
-      <c r="B376" s="7">
-        <v>155</v>
+        <v>259</v>
+      </c>
+      <c r="C376" s="8">
+        <v>260</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="6">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="B377" s="7">
-        <v>354</v>
+        <v>259</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="6">
-        <v>136</v>
-      </c>
-      <c r="B378" s="7">
-        <v>134</v>
+        <v>259</v>
+      </c>
+      <c r="C378" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="6">
-        <v>136</v>
-      </c>
-      <c r="C379" s="8">
-        <v>79</v>
+        <v>19</v>
+      </c>
+      <c r="B379" s="7">
+        <v>259</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="6">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="C380" s="8">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="6">
-        <v>136</v>
-      </c>
-      <c r="C381" s="8">
-        <v>113</v>
+        <v>82</v>
+      </c>
+      <c r="B381" s="7">
+        <v>259</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="6">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="C382" s="8">
-        <v>138</v>
+        <v>25</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="6">
-        <v>136</v>
-      </c>
-      <c r="C383" s="8">
-        <v>137</v>
+        <v>25</v>
+      </c>
+      <c r="B383" s="7">
+        <v>259</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="6">
-        <v>136</v>
-      </c>
-      <c r="B384" s="7">
-        <v>139</v>
+        <v>259</v>
+      </c>
+      <c r="C384" s="8">
+        <v>261</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="B385" s="7">
-        <v>136</v>
+        <v>259</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="C386" s="8">
-        <v>79</v>
+        <v>263</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="6">
-        <v>137</v>
-      </c>
-      <c r="C387" s="8">
-        <v>128</v>
+        <v>263</v>
+      </c>
+      <c r="B387" s="7">
+        <v>262</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="C388" s="8">
-        <v>116</v>
+        <v>264</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="6">
-        <v>137</v>
-      </c>
-      <c r="C389" s="8">
-        <v>115</v>
+        <v>264</v>
+      </c>
+      <c r="B389" s="7">
+        <v>262</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="6">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="C390" s="8">
-        <v>58</v>
+        <v>261</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="6">
-        <v>137</v>
-      </c>
-      <c r="C391" s="8">
-        <v>99</v>
+        <v>261</v>
+      </c>
+      <c r="B391" s="7">
+        <v>264</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="6">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="C392" s="8">
-        <v>357</v>
+        <v>25</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="6">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="B393" s="7">
-        <v>136</v>
+        <v>264</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="C394" s="8">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="6">
-        <v>139</v>
-      </c>
-      <c r="C395" s="8">
-        <v>135</v>
+        <v>78</v>
+      </c>
+      <c r="B395" s="7">
+        <v>264</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="6">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="C396" s="8">
-        <v>136</v>
+        <v>266</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="6">
-        <v>139</v>
-      </c>
-      <c r="C397" s="8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="398"/>
+        <v>266</v>
+      </c>
+      <c r="B397" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="6">
+        <v>265</v>
+      </c>
+      <c r="C398" s="8">
+        <v>267</v>
+      </c>
+    </row>
     <row r="399">
       <c r="A399" s="6">
-        <v>141</v>
-      </c>
-      <c r="C399" s="8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="400"/>
+        <v>267</v>
+      </c>
+      <c r="B399" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="6">
+        <v>265</v>
+      </c>
+      <c r="C400" s="8">
+        <v>268</v>
+      </c>
+    </row>
     <row r="401">
       <c r="A401" s="6">
-        <v>143</v>
-      </c>
-      <c r="C401" s="8">
-        <v>47</v>
+        <v>268</v>
+      </c>
+      <c r="B401" s="7">
+        <v>265</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="C402" s="8">
-        <v>144</v>
+        <v>269</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="6">
-        <v>143</v>
-      </c>
-      <c r="C403" s="8">
-        <v>106</v>
+        <v>269</v>
+      </c>
+      <c r="B403" s="7">
+        <v>265</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="C404" s="8">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="6">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="B405" s="7">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="6">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="C406" s="8">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="B407" s="7">
-        <v>143</v>
+        <v>270</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="6">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="C408" s="8">
-        <v>66</v>
+        <v>263</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="6">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="B409" s="7">
-        <v>144</v>
+        <v>270</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>145</v>
-      </c>
-      <c r="B410" s="7">
-        <v>205</v>
+        <v>263</v>
+      </c>
+      <c r="C410" s="8">
+        <v>271</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="6">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="B411" s="7">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="6">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="C412" s="8">
-        <v>49</v>
+        <v>261</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="6">
-        <v>149</v>
-      </c>
-      <c r="C413" s="8">
-        <v>125</v>
+        <v>261</v>
+      </c>
+      <c r="B413" s="7">
+        <v>263</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="6">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="C414" s="8">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="6">
-        <v>149</v>
-      </c>
-      <c r="C415" s="8">
-        <v>132</v>
+        <v>82</v>
+      </c>
+      <c r="B415" s="7">
+        <v>263</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="6">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="C416" s="8">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="6">
-        <v>150</v>
-      </c>
-      <c r="C417" s="8">
-        <v>106</v>
+        <v>25</v>
+      </c>
+      <c r="B417" s="7">
+        <v>263</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="6">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="C418" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="419"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="6">
+        <v>272</v>
+      </c>
+      <c r="B419" s="7">
+        <v>263</v>
+      </c>
+    </row>
     <row r="420">
       <c r="A420" s="6">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="C420" s="8">
-        <v>59</v>
+        <v>179</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="6">
-        <v>152</v>
-      </c>
-      <c r="C421" s="8">
-        <v>57</v>
+        <v>179</v>
+      </c>
+      <c r="B421" s="7">
+        <v>275</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="6">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="C422" s="8">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="6">
-        <v>153</v>
-      </c>
-      <c r="C423" s="8">
-        <v>24</v>
+        <v>179</v>
+      </c>
+      <c r="B423" s="7">
+        <v>276</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="6">
-        <v>153</v>
-      </c>
-      <c r="C424" s="8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="425"/>
+        <v>277</v>
+      </c>
+      <c r="B424" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="6">
+        <v>241</v>
+      </c>
+      <c r="C425" s="8">
+        <v>277</v>
+      </c>
+    </row>
     <row r="426">
       <c r="A426" s="6">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="C426" s="8">
-        <v>57</v>
+        <v>277</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="6">
-        <v>155</v>
-      </c>
-      <c r="C427" s="8">
-        <v>135</v>
+        <v>277</v>
+      </c>
+      <c r="B427" s="7">
+        <v>278</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="6">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="C428" s="8">
         <v>79</v>
@@ -3286,197 +3524,274 @@
     </row>
     <row r="429">
       <c r="A429" s="6">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="B429" s="7">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="6">
+        <v>279</v>
+      </c>
+      <c r="C430" s="8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="6">
+        <v>278</v>
+      </c>
+      <c r="B431" s="7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="6">
+        <v>280</v>
+      </c>
+      <c r="C432" s="8">
+        <v>79</v>
+      </c>
+    </row>
     <row r="433">
       <c r="A433" s="6">
-        <v>161</v>
-      </c>
-      <c r="C433" s="8">
-        <v>250</v>
+        <v>79</v>
+      </c>
+      <c r="B433" s="7">
+        <v>280</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="6">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="C434" s="8">
-        <v>250</v>
+        <v>28</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="6">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="B435" s="7">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="6">
-        <v>164</v>
-      </c>
-      <c r="B436" s="7">
-        <v>354</v>
+        <v>280</v>
+      </c>
+      <c r="C436" s="8">
+        <v>119</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="6">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="B437" s="7">
-        <v>166</v>
+        <v>280</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="6">
-        <v>165</v>
-      </c>
-      <c r="B438" s="7">
-        <v>1</v>
+        <v>280</v>
+      </c>
+      <c r="C438" s="8">
+        <v>117</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="6">
-        <v>166</v>
-      </c>
-      <c r="C439" s="8">
-        <v>164</v>
+        <v>117</v>
+      </c>
+      <c r="B439" s="7">
+        <v>280</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="6">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="C440" s="8">
-        <v>356</v>
+        <v>57</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="6">
-        <v>166</v>
-      </c>
-      <c r="C441" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
+        <v>57</v>
+      </c>
+      <c r="B441" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="6">
+        <v>281</v>
+      </c>
+      <c r="C442" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="6">
+        <v>90</v>
+      </c>
+      <c r="B443" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="6">
+        <v>281</v>
+      </c>
+      <c r="C444" s="8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="6">
+        <v>145</v>
+      </c>
+      <c r="B445" s="7">
+        <v>281</v>
+      </c>
+    </row>
     <row r="446">
       <c r="A446" s="6">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="C446" s="8">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="447"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="6">
+        <v>69</v>
+      </c>
+      <c r="B447" s="7">
+        <v>281</v>
+      </c>
+    </row>
     <row r="448">
       <c r="A448" s="6">
-        <v>173</v>
-      </c>
-      <c r="B448" s="7">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
+        <v>281</v>
+      </c>
+      <c r="C448" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="6">
+        <v>64</v>
+      </c>
+      <c r="B449" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="6">
+        <v>232</v>
+      </c>
+      <c r="C450" s="8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="6">
+        <v>281</v>
+      </c>
+      <c r="B451" s="7">
+        <v>232</v>
+      </c>
+    </row>
     <row r="452">
       <c r="A452" s="6">
-        <v>177</v>
-      </c>
-      <c r="B452" s="7">
-        <v>199</v>
+        <v>282</v>
+      </c>
+      <c r="C452" s="8">
+        <v>66</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="6">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="B453" s="7">
-        <v>179</v>
+        <v>282</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="6">
-        <v>178</v>
-      </c>
-      <c r="B454" s="7">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="C454" s="8">
+        <v>282</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="6">
-        <v>178</v>
+        <v>282</v>
       </c>
       <c r="B455" s="7">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="6">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="C456" s="8">
-        <v>2</v>
+        <v>283</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="6">
-        <v>179</v>
-      </c>
-      <c r="C457" s="8">
-        <v>178</v>
+        <v>283</v>
+      </c>
+      <c r="B457" s="7">
+        <v>282</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="6">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="C458" s="8">
-        <v>64</v>
+        <v>178</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="6">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B459" s="7">
-        <v>180</v>
+        <v>284</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="6">
-        <v>179</v>
-      </c>
-      <c r="B460" s="7">
-        <v>181</v>
+        <v>284</v>
+      </c>
+      <c r="C460" s="8">
+        <v>68</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="6">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="B461" s="7">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="6">
+        <v>284</v>
+      </c>
+      <c r="C462" s="8">
         <v>179</v>
-      </c>
-      <c r="B462" s="7">
-        <v>276</v>
       </c>
     </row>
     <row r="463">
@@ -3489,1337 +3804,1012 @@
     </row>
     <row r="464">
       <c r="A464" s="6">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="C464" s="8">
-        <v>179</v>
+        <v>65</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="6">
-        <v>180</v>
-      </c>
-      <c r="C465" s="8">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="B465" s="7">
+        <v>284</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="6">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="C466" s="8">
-        <v>179</v>
+        <v>64</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="6">
-        <v>181</v>
-      </c>
-      <c r="C467" s="8">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="B467" s="7">
+        <v>284</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="6">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="C468" s="8">
-        <v>64</v>
+        <v>286</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="6">
-        <v>182</v>
-      </c>
-      <c r="C469" s="8">
+        <v>286</v>
+      </c>
+      <c r="B469" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="6">
+        <v>286</v>
+      </c>
+      <c r="C470" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
+    <row r="471">
+      <c r="A471" s="6">
+        <v>65</v>
+      </c>
+      <c r="B471" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="6">
+        <v>286</v>
+      </c>
+      <c r="C472" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="6">
+        <v>22</v>
+      </c>
+      <c r="B473" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="6">
+        <v>286</v>
+      </c>
+      <c r="C474" s="8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="6">
+        <v>287</v>
+      </c>
+      <c r="B475" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="6">
+        <v>286</v>
+      </c>
+      <c r="C476" s="8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="6">
+        <v>288</v>
+      </c>
+      <c r="B477" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="6">
+        <v>289</v>
+      </c>
+      <c r="C478" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="6">
+        <v>290</v>
+      </c>
+      <c r="B479" s="7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="6">
+        <v>116</v>
+      </c>
+      <c r="C480" s="8">
+        <v>290</v>
+      </c>
+    </row>
     <row r="481">
       <c r="A481" s="6">
-        <v>195</v>
-      </c>
-      <c r="C481" s="8">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
+        <v>290</v>
+      </c>
+      <c r="B481" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="6">
+        <v>115</v>
+      </c>
+      <c r="C482" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="6">
+        <v>290</v>
+      </c>
+      <c r="B483" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="6">
+        <v>111</v>
+      </c>
+      <c r="C484" s="8">
+        <v>290</v>
+      </c>
+    </row>
     <row r="485">
       <c r="A485" s="6">
-        <v>199</v>
-      </c>
-      <c r="C485" s="8">
-        <v>1</v>
+        <v>290</v>
+      </c>
+      <c r="B485" s="7">
+        <v>111</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="6">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="C486" s="8">
-        <v>177</v>
+        <v>290</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="6">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="B487" s="7">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="488"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="6">
+        <v>295</v>
+      </c>
+      <c r="C488" s="8">
+        <v>290</v>
+      </c>
+    </row>
     <row r="489">
       <c r="A489" s="6">
-        <v>201</v>
-      </c>
-      <c r="C489" s="8">
-        <v>202</v>
+        <v>290</v>
+      </c>
+      <c r="B489" s="7">
+        <v>295</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="6">
-        <v>202</v>
-      </c>
-      <c r="B490" s="7">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="491"/>
+        <v>297</v>
+      </c>
+      <c r="C490" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="6">
+        <v>178</v>
+      </c>
+      <c r="B491" s="7">
+        <v>297</v>
+      </c>
+    </row>
     <row r="492">
       <c r="A492" s="6">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="C492" s="8">
-        <v>104</v>
+        <v>302</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="6">
-        <v>205</v>
-      </c>
-      <c r="C493" s="8">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
+        <v>302</v>
+      </c>
+      <c r="B493" s="7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="6">
+        <v>311</v>
+      </c>
+      <c r="C494" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="6">
+        <v>62</v>
+      </c>
+      <c r="B495" s="7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="6">
+        <v>311</v>
+      </c>
+      <c r="C496" s="8">
+        <v>53</v>
+      </c>
+    </row>
     <row r="497">
       <c r="A497" s="6">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="B497" s="7">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="498"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="6">
+        <v>84</v>
+      </c>
+      <c r="C498" s="8">
+        <v>106</v>
+      </c>
+    </row>
     <row r="499">
       <c r="A499" s="6">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B499" s="7">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="500"/>
-    <row r="501"/>
-    <row r="502"/>
-    <row r="503"/>
-    <row r="504"/>
-    <row r="505"/>
-    <row r="506"/>
-    <row r="507"/>
-    <row r="508"/>
-    <row r="509"/>
-    <row r="510"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="6">
+        <v>84</v>
+      </c>
+      <c r="C500" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="6">
+        <v>49</v>
+      </c>
+      <c r="B501" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="6">
+        <v>84</v>
+      </c>
+      <c r="C502" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="6">
+        <v>125</v>
+      </c>
+      <c r="B503" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="6">
+        <v>84</v>
+      </c>
+      <c r="C504" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="6">
+        <v>47</v>
+      </c>
+      <c r="B505" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="6">
+        <v>312</v>
+      </c>
+      <c r="C506" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="6">
+        <v>64</v>
+      </c>
+      <c r="B507" s="7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="6">
+        <v>312</v>
+      </c>
+      <c r="C508" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="6">
+        <v>47</v>
+      </c>
+      <c r="B509" s="7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="6">
+        <v>118</v>
+      </c>
+      <c r="C510" s="8">
+        <v>60</v>
+      </c>
+    </row>
     <row r="511">
       <c r="A511" s="6">
-        <v>223</v>
-      </c>
-      <c r="C511" s="8">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B511" s="7">
+        <v>118</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="6">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="C512" s="8">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="6">
-        <v>223</v>
-      </c>
-      <c r="C513" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="514"/>
-    <row r="515"/>
+        <v>70</v>
+      </c>
+      <c r="B513" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="6">
+        <v>97</v>
+      </c>
+      <c r="C514" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="6">
+        <v>322</v>
+      </c>
+      <c r="B515" s="7">
+        <v>97</v>
+      </c>
+    </row>
     <row r="516">
       <c r="A516" s="6">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="C516" s="8">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="6">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="B517" s="7">
-        <v>226</v>
+        <v>325</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="6">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="C518" s="8">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="6">
-        <v>227</v>
-      </c>
-      <c r="C519" s="8">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="B519" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="6">
-        <v>227</v>
-      </c>
-      <c r="B520" s="7">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="521"/>
-    <row r="522"/>
-    <row r="523"/>
-    <row r="524"/>
+        <v>14</v>
+      </c>
+      <c r="C520" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="6">
+        <v>63</v>
+      </c>
+      <c r="B521" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="6">
+        <v>14</v>
+      </c>
+      <c r="C522" s="8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="6">
+        <v>260</v>
+      </c>
+      <c r="B523" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="6">
+        <v>19</v>
+      </c>
+      <c r="C524" s="8">
+        <v>66</v>
+      </c>
+    </row>
     <row r="525">
       <c r="A525" s="6">
-        <v>232</v>
-      </c>
-      <c r="C525" s="8">
-        <v>281</v>
+        <v>66</v>
+      </c>
+      <c r="B525" s="7">
+        <v>19</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="6">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="C526" s="8">
-        <v>227</v>
+        <v>68</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="6">
-        <v>235</v>
-      </c>
-      <c r="C527" s="8">
-        <v>95</v>
+        <v>68</v>
+      </c>
+      <c r="B527" s="7">
+        <v>19</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="6">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="C528" s="8">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="529"/>
-    <row r="530"/>
-    <row r="531"/>
-    <row r="532"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="6">
+        <v>65</v>
+      </c>
+      <c r="B529" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="6">
+        <v>78</v>
+      </c>
+      <c r="C530" s="8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="6">
+        <v>329</v>
+      </c>
+      <c r="B531" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="6">
+        <v>22</v>
+      </c>
+      <c r="C532" s="8">
+        <v>329</v>
+      </c>
+    </row>
     <row r="533">
       <c r="A533" s="6">
-        <v>241</v>
-      </c>
-      <c r="C533" s="8">
-        <v>98</v>
+        <v>329</v>
+      </c>
+      <c r="B533" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="6">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C534" s="8">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="6">
-        <v>241</v>
-      </c>
-      <c r="C535" s="8">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="B535" s="7">
+        <v>223</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="6">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C536" s="8">
-        <v>143</v>
+        <v>79</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="6">
-        <v>241</v>
-      </c>
-      <c r="C537" s="8">
-        <v>242</v>
+        <v>79</v>
+      </c>
+      <c r="B537" s="7">
+        <v>223</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="6">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C538" s="8">
-        <v>277</v>
+        <v>90</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="6">
-        <v>242</v>
+        <v>90</v>
       </c>
       <c r="B539" s="7">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="540"/>
-    <row r="541"/>
-    <row r="542"/>
-    <row r="543"/>
-    <row r="544"/>
-    <row r="545"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="6">
+        <v>352</v>
+      </c>
+      <c r="C540" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="6">
+        <v>65</v>
+      </c>
+      <c r="B541" s="7">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="6">
+        <v>352</v>
+      </c>
+      <c r="C542" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="6">
+        <v>64</v>
+      </c>
+      <c r="B543" s="7">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="6">
+        <v>354</v>
+      </c>
+      <c r="C544" s="8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="6">
+        <v>341</v>
+      </c>
+      <c r="B545" s="7">
+        <v>354</v>
+      </c>
+    </row>
     <row r="546">
       <c r="A546" s="6">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="C546" s="8">
-        <v>251</v>
+        <v>19</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="6">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="B547" s="7">
-        <v>162</v>
+        <v>354</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="6">
-        <v>250</v>
-      </c>
-      <c r="B548" s="7">
-        <v>161</v>
+        <v>354</v>
+      </c>
+      <c r="C548" s="8">
+        <v>355</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="6">
-        <v>251</v>
+        <v>355</v>
       </c>
       <c r="B549" s="7">
-        <v>250</v>
+        <v>354</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="6">
-        <v>252</v>
+        <v>354</v>
       </c>
       <c r="C550" s="8">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="551"/>
-    <row r="552"/>
-    <row r="553"/>
-    <row r="554"/>
-    <row r="555"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="6">
+        <v>135</v>
+      </c>
+      <c r="B551" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="6">
+        <v>354</v>
+      </c>
+      <c r="C552" s="8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="6">
+        <v>164</v>
+      </c>
+      <c r="B553" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="6">
+        <v>308</v>
+      </c>
+      <c r="C554" s="8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="6">
+        <v>355</v>
+      </c>
+      <c r="B555" s="7">
+        <v>308</v>
+      </c>
+    </row>
     <row r="556">
       <c r="A556" s="6">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="C556" s="8">
-        <v>79</v>
+        <v>164</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="6">
-        <v>259</v>
-      </c>
-      <c r="C557" s="8">
-        <v>260</v>
+        <v>164</v>
+      </c>
+      <c r="B557" s="7">
+        <v>166</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="6">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="C558" s="8">
-        <v>19</v>
+        <v>356</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="6">
-        <v>259</v>
-      </c>
-      <c r="C559" s="8">
-        <v>82</v>
+        <v>356</v>
+      </c>
+      <c r="B559" s="7">
+        <v>166</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="6">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="C560" s="8">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="6">
-        <v>259</v>
-      </c>
-      <c r="C561" s="8">
-        <v>261</v>
+        <v>1</v>
+      </c>
+      <c r="B561" s="7">
+        <v>166</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="6">
-        <v>260</v>
-      </c>
-      <c r="B562" s="7">
-        <v>259</v>
+        <v>137</v>
+      </c>
+      <c r="C562" s="8">
+        <v>79</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="6">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="B563" s="7">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="6">
-        <v>261</v>
-      </c>
-      <c r="B564" s="7">
-        <v>259</v>
+        <v>137</v>
+      </c>
+      <c r="C564" s="8">
+        <v>128</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="6">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c r="B565" s="7">
-        <v>264</v>
+        <v>137</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="6">
-        <v>261</v>
-      </c>
-      <c r="B566" s="7">
-        <v>263</v>
+        <v>137</v>
+      </c>
+      <c r="C566" s="8">
+        <v>116</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="6">
-        <v>262</v>
-      </c>
-      <c r="C567" s="8">
-        <v>263</v>
+        <v>116</v>
+      </c>
+      <c r="B567" s="7">
+        <v>137</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="6">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="C568" s="8">
-        <v>264</v>
+        <v>115</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="6">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="B569" s="7">
-        <v>262</v>
+        <v>137</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="6">
-        <v>263</v>
-      </c>
-      <c r="B570" s="7">
-        <v>270</v>
+        <v>137</v>
+      </c>
+      <c r="C570" s="8">
+        <v>58</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="6">
-        <v>263</v>
-      </c>
-      <c r="C571" s="8">
-        <v>271</v>
+        <v>58</v>
+      </c>
+      <c r="B571" s="7">
+        <v>137</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="6">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="C572" s="8">
-        <v>261</v>
+        <v>99</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="6">
-        <v>263</v>
-      </c>
-      <c r="C573" s="8">
-        <v>82</v>
+        <v>99</v>
+      </c>
+      <c r="B573" s="7">
+        <v>137</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="6">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="C574" s="8">
-        <v>25</v>
+        <v>357</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="6">
-        <v>263</v>
-      </c>
-      <c r="C575" s="8">
-        <v>272</v>
+        <v>357</v>
+      </c>
+      <c r="B575" s="7">
+        <v>137</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="6">
-        <v>264</v>
-      </c>
-      <c r="B576" s="7">
-        <v>262</v>
+        <v>55</v>
+      </c>
+      <c r="C576" s="8">
+        <v>362</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="6">
-        <v>264</v>
-      </c>
-      <c r="C577" s="8">
-        <v>261</v>
+        <v>362</v>
+      </c>
+      <c r="B577" s="7">
+        <v>55</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="6">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="C578" s="8">
-        <v>25</v>
+        <v>362</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="6">
-        <v>264</v>
-      </c>
-      <c r="C579" s="8">
-        <v>78</v>
+        <v>362</v>
+      </c>
+      <c r="B579" s="7">
+        <v>363</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="6">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="C580" s="8">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="6">
-        <v>265</v>
-      </c>
-      <c r="C581" s="8">
-        <v>267</v>
+        <v>362</v>
+      </c>
+      <c r="B581" s="7">
+        <v>364</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="6">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="C582" s="8">
-        <v>268</v>
+        <v>133</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="6">
-        <v>265</v>
-      </c>
-      <c r="C583" s="8">
-        <v>269</v>
+        <v>133</v>
+      </c>
+      <c r="B583" s="7">
+        <v>367</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="6">
-        <v>266</v>
-      </c>
-      <c r="B584" s="7">
-        <v>265</v>
+        <v>367</v>
+      </c>
+      <c r="C584" s="8">
+        <v>368</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="6">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="B585" s="7">
-        <v>265</v>
+        <v>367</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="6">
-        <v>268</v>
-      </c>
-      <c r="B586" s="7">
-        <v>265</v>
+        <v>180</v>
+      </c>
+      <c r="C586" s="8">
+        <v>68</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="6">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c r="B587" s="7">
-        <v>265</v>
+        <v>180</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="6">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="C588" s="8">
-        <v>25</v>
+        <v>369</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="6">
-        <v>270</v>
-      </c>
-      <c r="C589" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="6">
-        <v>270</v>
-      </c>
-      <c r="C590" s="8">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="6">
-        <v>271</v>
-      </c>
-      <c r="B591" s="7">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="6">
-        <v>272</v>
-      </c>
-      <c r="B592" s="7">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="593"/>
-    <row r="594"/>
-    <row r="595">
-      <c r="A595" s="6">
-        <v>275</v>
-      </c>
-      <c r="C595" s="8">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="6">
-        <v>276</v>
-      </c>
-      <c r="C596" s="8">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="6">
-        <v>277</v>
-      </c>
-      <c r="B597" s="7">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="6">
-        <v>277</v>
-      </c>
-      <c r="B598" s="7">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="6">
-        <v>278</v>
-      </c>
-      <c r="C599" s="8">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="6">
-        <v>278</v>
-      </c>
-      <c r="C600" s="8">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="6">
-        <v>278</v>
-      </c>
-      <c r="B601" s="7">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="6">
-        <v>279</v>
-      </c>
-      <c r="C602" s="8">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="6">
-        <v>280</v>
-      </c>
-      <c r="C603" s="8">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="6">
-        <v>280</v>
-      </c>
-      <c r="C604" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="6">
-        <v>280</v>
-      </c>
-      <c r="C605" s="8">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" s="6">
-        <v>280</v>
-      </c>
-      <c r="C606" s="8">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="6">
-        <v>281</v>
-      </c>
-      <c r="C607" s="8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="6">
-        <v>281</v>
-      </c>
-      <c r="C608" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="6">
-        <v>281</v>
-      </c>
-      <c r="C609" s="8">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" s="6">
-        <v>281</v>
-      </c>
-      <c r="C610" s="8">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="6">
-        <v>281</v>
-      </c>
-      <c r="C611" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" s="6">
-        <v>281</v>
-      </c>
-      <c r="B612" s="7">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" s="6">
-        <v>282</v>
-      </c>
-      <c r="C613" s="8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" s="6">
-        <v>282</v>
-      </c>
-      <c r="B614" s="7">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="6">
-        <v>282</v>
-      </c>
-      <c r="C615" s="8">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" s="6">
-        <v>283</v>
-      </c>
-      <c r="C616" s="8">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="6">
-        <v>283</v>
-      </c>
-      <c r="B617" s="7">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="6">
-        <v>284</v>
-      </c>
-      <c r="C618" s="8">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="6">
-        <v>284</v>
-      </c>
-      <c r="C619" s="8">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" s="6">
-        <v>284</v>
-      </c>
-      <c r="C620" s="8">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" s="6">
-        <v>284</v>
-      </c>
-      <c r="C621" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" s="6">
-        <v>284</v>
-      </c>
-      <c r="C622" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="6">
-        <v>285</v>
-      </c>
-      <c r="C623" s="8">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="6">
-        <v>286</v>
-      </c>
-      <c r="B624" s="7">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" s="6">
-        <v>286</v>
-      </c>
-      <c r="C625" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" s="6">
-        <v>286</v>
-      </c>
-      <c r="C626" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" s="6">
-        <v>286</v>
-      </c>
-      <c r="C627" s="8">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" s="6">
-        <v>286</v>
-      </c>
-      <c r="C628" s="8">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" s="6">
-        <v>287</v>
-      </c>
-      <c r="B629" s="7">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" s="6">
-        <v>288</v>
-      </c>
-      <c r="B630" s="7">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" s="6">
-        <v>289</v>
-      </c>
-      <c r="C631" s="8">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="6">
-        <v>290</v>
-      </c>
-      <c r="B632" s="7">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="6">
-        <v>290</v>
-      </c>
-      <c r="B633" s="7">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" s="6">
-        <v>290</v>
-      </c>
-      <c r="B634" s="7">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" s="6">
-        <v>290</v>
-      </c>
-      <c r="B635" s="7">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="6">
-        <v>290</v>
-      </c>
-      <c r="B636" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="6">
-        <v>290</v>
-      </c>
-      <c r="B637" s="7">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="638"/>
-    <row r="639"/>
-    <row r="640"/>
-    <row r="641"/>
-    <row r="642">
-      <c r="A642" s="6">
-        <v>295</v>
-      </c>
-      <c r="C642" s="8">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="643"/>
-    <row r="644">
-      <c r="A644" s="6">
-        <v>297</v>
-      </c>
-      <c r="C644" s="8">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="645"/>
-    <row r="646"/>
-    <row r="647"/>
-    <row r="648"/>
-    <row r="649">
-      <c r="A649" s="6">
-        <v>302</v>
-      </c>
-      <c r="B649" s="7">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" s="6">
-        <v>303</v>
-      </c>
-      <c r="C650" s="8">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="651"/>
-    <row r="652"/>
-    <row r="653"/>
-    <row r="654"/>
-    <row r="655">
-      <c r="A655" s="6">
-        <v>308</v>
-      </c>
-      <c r="C655" s="8">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="656"/>
-    <row r="657"/>
-    <row r="658">
-      <c r="A658" s="6">
-        <v>311</v>
-      </c>
-      <c r="C658" s="8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" s="6">
-        <v>311</v>
-      </c>
-      <c r="C659" s="8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" s="6">
-        <v>312</v>
-      </c>
-      <c r="C660" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" s="6">
-        <v>312</v>
-      </c>
-      <c r="C661" s="8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="662"/>
-    <row r="663"/>
-    <row r="664"/>
-    <row r="665"/>
-    <row r="666"/>
-    <row r="667"/>
-    <row r="668">
-      <c r="A668" s="6">
-        <v>322</v>
-      </c>
-      <c r="B668" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="669"/>
-    <row r="670"/>
-    <row r="671">
-      <c r="A671" s="6">
-        <v>325</v>
-      </c>
-      <c r="C671" s="8">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="672"/>
-    <row r="673"/>
-    <row r="674"/>
-    <row r="675">
-      <c r="A675" s="6">
-        <v>329</v>
-      </c>
-      <c r="B675" s="7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" s="6">
-        <v>329</v>
-      </c>
-      <c r="B676" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="677"/>
-    <row r="678"/>
-    <row r="679"/>
-    <row r="680"/>
-    <row r="681"/>
-    <row r="682"/>
-    <row r="683"/>
-    <row r="684"/>
-    <row r="685"/>
-    <row r="686"/>
-    <row r="687"/>
-    <row r="688">
-      <c r="A688" s="6">
-        <v>341</v>
-      </c>
-      <c r="B688" s="7">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="689"/>
-    <row r="690"/>
-    <row r="691"/>
-    <row r="692"/>
-    <row r="693"/>
-    <row r="694"/>
-    <row r="695"/>
-    <row r="696"/>
-    <row r="697"/>
-    <row r="698"/>
-    <row r="699">
-      <c r="A699" s="6">
-        <v>352</v>
-      </c>
-      <c r="C699" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" s="6">
-        <v>352</v>
-      </c>
-      <c r="C700" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="701"/>
-    <row r="702">
-      <c r="A702" s="6">
-        <v>354</v>
-      </c>
-      <c r="C702" s="8">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" s="6">
-        <v>354</v>
-      </c>
-      <c r="C703" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" s="6">
-        <v>354</v>
-      </c>
-      <c r="C704" s="8">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" s="6">
-        <v>354</v>
-      </c>
-      <c r="C705" s="8">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" s="6">
-        <v>354</v>
-      </c>
-      <c r="C706" s="8">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" s="6">
-        <v>355</v>
-      </c>
-      <c r="B707" s="7">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" s="6">
-        <v>355</v>
-      </c>
-      <c r="B708" s="7">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" s="6">
-        <v>356</v>
-      </c>
-      <c r="B709" s="7">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" s="6">
-        <v>357</v>
-      </c>
-      <c r="B710" s="7">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="711"/>
-    <row r="712"/>
-    <row r="713"/>
-    <row r="714"/>
-    <row r="715">
-      <c r="A715" s="6">
-        <v>362</v>
-      </c>
-      <c r="B715" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" s="6">
-        <v>362</v>
-      </c>
-      <c r="B716" s="7">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" s="6">
-        <v>362</v>
-      </c>
-      <c r="B717" s="7">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" s="6">
-        <v>363</v>
-      </c>
-      <c r="C718" s="8">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" s="6">
-        <v>364</v>
-      </c>
-      <c r="C719" s="8">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="720"/>
-    <row r="721"/>
-    <row r="722">
-      <c r="A722" s="6">
-        <v>367</v>
-      </c>
-      <c r="C722" s="8">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" s="6">
-        <v>367</v>
-      </c>
-      <c r="C723" s="8">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" s="6">
-        <v>368</v>
-      </c>
-      <c r="B724" s="7">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="725"/>
+        <v>369</v>
+      </c>
+      <c r="B589" s="7">
+        <v>387</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>